--- a/normativa/Anexos/L01T03C08/L01T03C08A03-2.xlsx
+++ b/normativa/Anexos/L01T03C08/L01T03C08A03-2.xlsx
@@ -10,14 +10,14 @@
     <sheet name="HOJA 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'HOJA 1'!$A$1:$AH$70</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'HOJA 1'!$A$1:$AH$76</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>ENTIDAD:</t>
   </si>
@@ -28,9 +28,6 @@
     <t>Justificación de la acción:</t>
   </si>
   <si>
-    <t>Tipos de cajero automático (marcar con una X)</t>
-  </si>
-  <si>
     <t>1. Interno ubicado en la misma entidad</t>
   </si>
   <si>
@@ -95,18 +92,6 @@
   </si>
   <si>
     <t>4. Proveedor:</t>
-  </si>
-  <si>
-    <t>6. Barras de apoyo</t>
-  </si>
-  <si>
-    <t>7. Rampa de acceso instalada en caso de desnivel en la entrada</t>
-  </si>
-  <si>
-    <t>8. Acera adaptada si se trata de un cajero externo con recinto</t>
-  </si>
-  <si>
-    <t>9. Máquina del cajero automático cumple con las especificaciones establecidas</t>
   </si>
   <si>
     <t>LOCALIZACIÓN</t>
@@ -318,12 +303,66 @@
   <si>
     <t>2. Observaciones, aclaraciones o comentarios: (Ej. Cercanía a otros cajeros automáticos, proximidad a oficinas propias, proximidad a otras entidades financieras, etc.)</t>
   </si>
+  <si>
+    <t>4. Cajeros Automáticos Especiales</t>
+  </si>
+  <si>
+    <t>7. Barras de apoyo</t>
+  </si>
+  <si>
+    <t>8. Puertas de acceso para sillas de ruedas</t>
+  </si>
+  <si>
+    <t>9. Rampa de acceso instalada en caso de desnivel en la entrada</t>
+  </si>
+  <si>
+    <t>6. Máquina del cajero automático cumple las especificaciones establecidas</t>
+  </si>
+  <si>
+    <r>
+      <t>Tipo</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> de cajero automático (marcar con una X)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">     4.1  Recepción de depósitos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     4.2  Transferencias interbancarias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     4.3  Fraccionamiento de billetes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     4.4  Otra (Especificar):</t>
+  </si>
+  <si>
+    <t>10. Acera adaptada si se trata de un cajero externo con recinto</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -433,6 +472,13 @@
       <family val="1"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -630,7 +676,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -653,9 +699,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -690,7 +733,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -724,6 +766,30 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -775,6 +841,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -813,15 +888,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -852,14 +918,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>4344</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>41462</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>4343</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -889,7 +955,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1175,16 +1241,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH70"/>
+  <dimension ref="A1:AH76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:AE14"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="A46" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="12" width="3.7109375" style="4"/>
-    <col min="13" max="13" width="24" style="4" customWidth="1"/>
+    <col min="13" max="13" width="31.140625" style="4" customWidth="1"/>
     <col min="14" max="14" width="11.140625" style="4" customWidth="1"/>
     <col min="15" max="15" width="4.140625" style="4" customWidth="1"/>
     <col min="16" max="16" width="3.7109375" style="4" customWidth="1"/>
@@ -1229,109 +1295,109 @@
       <c r="AE1" s="3"/>
     </row>
     <row r="2" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49"/>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="49"/>
-      <c r="AC2" s="49"/>
-      <c r="AD2" s="49"/>
-      <c r="AE2" s="49"/>
+      <c r="A2" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="55"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="55"/>
+      <c r="AC2" s="55"/>
+      <c r="AD2" s="55"/>
+      <c r="AE2" s="55"/>
     </row>
     <row r="3" spans="1:31" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
-      <c r="Z3" s="51"/>
-      <c r="AA3" s="51"/>
-      <c r="AB3" s="51"/>
-      <c r="AC3" s="51"/>
-      <c r="AD3" s="51"/>
-      <c r="AE3" s="51"/>
+      <c r="A3" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
+      <c r="V3" s="57"/>
+      <c r="W3" s="57"/>
+      <c r="X3" s="57"/>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="57"/>
+      <c r="AA3" s="57"/>
+      <c r="AB3" s="57"/>
+      <c r="AC3" s="57"/>
+      <c r="AD3" s="57"/>
+      <c r="AE3" s="57"/>
     </row>
     <row r="4" spans="1:31" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="50"/>
-      <c r="R4" s="50"/>
-      <c r="S4" s="50"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="50"/>
-      <c r="V4" s="50"/>
-      <c r="W4" s="50"/>
-      <c r="X4" s="50"/>
-      <c r="Y4" s="50"/>
-      <c r="Z4" s="50"/>
-      <c r="AA4" s="50"/>
-      <c r="AB4" s="50"/>
-      <c r="AC4" s="50"/>
-      <c r="AD4" s="50"/>
-      <c r="AE4" s="50"/>
+      <c r="A4" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="56"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="56"/>
+      <c r="V4" s="56"/>
+      <c r="W4" s="56"/>
+      <c r="X4" s="56"/>
+      <c r="Y4" s="56"/>
+      <c r="Z4" s="56"/>
+      <c r="AA4" s="56"/>
+      <c r="AB4" s="56"/>
+      <c r="AC4" s="56"/>
+      <c r="AD4" s="56"/>
+      <c r="AE4" s="56"/>
     </row>
     <row r="5" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
@@ -1367,74 +1433,74 @@
       <c r="AE5" s="8"/>
     </row>
     <row r="6" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="53"/>
-      <c r="S6" s="53"/>
-      <c r="T6" s="53"/>
-      <c r="U6" s="53"/>
-      <c r="V6" s="53"/>
-      <c r="W6" s="53"/>
-      <c r="X6" s="53"/>
-      <c r="Y6" s="53"/>
-      <c r="Z6" s="53"/>
-      <c r="AA6" s="53"/>
-      <c r="AB6" s="53"/>
-      <c r="AC6" s="53"/>
-      <c r="AD6" s="53"/>
-      <c r="AE6" s="54"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="59"/>
+      <c r="T6" s="59"/>
+      <c r="U6" s="59"/>
+      <c r="V6" s="59"/>
+      <c r="W6" s="59"/>
+      <c r="X6" s="59"/>
+      <c r="Y6" s="59"/>
+      <c r="Z6" s="59"/>
+      <c r="AA6" s="59"/>
+      <c r="AB6" s="59"/>
+      <c r="AC6" s="59"/>
+      <c r="AD6" s="59"/>
+      <c r="AE6" s="60"/>
     </row>
     <row r="7" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="53"/>
-      <c r="T7" s="53"/>
-      <c r="U7" s="53"/>
-      <c r="V7" s="53"/>
-      <c r="W7" s="53"/>
-      <c r="X7" s="53"/>
-      <c r="Y7" s="53"/>
-      <c r="Z7" s="53"/>
-      <c r="AA7" s="53"/>
-      <c r="AB7" s="53"/>
-      <c r="AC7" s="53"/>
-      <c r="AD7" s="53"/>
-      <c r="AE7" s="54"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="59"/>
+      <c r="S7" s="59"/>
+      <c r="T7" s="59"/>
+      <c r="U7" s="59"/>
+      <c r="V7" s="59"/>
+      <c r="W7" s="59"/>
+      <c r="X7" s="59"/>
+      <c r="Y7" s="59"/>
+      <c r="Z7" s="59"/>
+      <c r="AA7" s="59"/>
+      <c r="AB7" s="59"/>
+      <c r="AC7" s="59"/>
+      <c r="AD7" s="59"/>
+      <c r="AE7" s="60"/>
     </row>
     <row r="8" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
@@ -1471,7 +1537,7 @@
     </row>
     <row r="9" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -1505,74 +1571,74 @@
       <c r="AE9" s="13"/>
     </row>
     <row r="10" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="56"/>
-      <c r="U10" s="56"/>
-      <c r="V10" s="56"/>
-      <c r="W10" s="56"/>
-      <c r="X10" s="56"/>
-      <c r="Y10" s="56"/>
-      <c r="Z10" s="56"/>
-      <c r="AA10" s="56"/>
-      <c r="AB10" s="56"/>
-      <c r="AC10" s="56"/>
-      <c r="AD10" s="56"/>
-      <c r="AE10" s="57"/>
-    </row>
-    <row r="11" spans="1:31" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="58" t="s">
+      <c r="A10" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="62"/>
+      <c r="R10" s="62"/>
+      <c r="S10" s="62"/>
+      <c r="T10" s="62"/>
+      <c r="U10" s="62"/>
+      <c r="V10" s="62"/>
+      <c r="W10" s="62"/>
+      <c r="X10" s="62"/>
+      <c r="Y10" s="62"/>
+      <c r="Z10" s="62"/>
+      <c r="AA10" s="62"/>
+      <c r="AB10" s="62"/>
+      <c r="AC10" s="62"/>
+      <c r="AD10" s="62"/>
+      <c r="AE10" s="63"/>
+    </row>
+    <row r="11" spans="1:31" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="59"/>
-      <c r="S11" s="59"/>
-      <c r="T11" s="59"/>
-      <c r="U11" s="59"/>
-      <c r="V11" s="59"/>
-      <c r="W11" s="59"/>
-      <c r="X11" s="59"/>
-      <c r="Y11" s="59"/>
-      <c r="Z11" s="59"/>
-      <c r="AA11" s="59"/>
-      <c r="AB11" s="59"/>
-      <c r="AC11" s="59"/>
-      <c r="AD11" s="59"/>
-      <c r="AE11" s="60"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="65"/>
+      <c r="O11" s="65"/>
+      <c r="P11" s="65"/>
+      <c r="Q11" s="65"/>
+      <c r="R11" s="65"/>
+      <c r="S11" s="65"/>
+      <c r="T11" s="65"/>
+      <c r="U11" s="65"/>
+      <c r="V11" s="65"/>
+      <c r="W11" s="65"/>
+      <c r="X11" s="65"/>
+      <c r="Y11" s="65"/>
+      <c r="Z11" s="65"/>
+      <c r="AA11" s="65"/>
+      <c r="AB11" s="65"/>
+      <c r="AC11" s="65"/>
+      <c r="AD11" s="65"/>
+      <c r="AE11" s="66"/>
     </row>
     <row r="12" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
@@ -1609,7 +1675,7 @@
     </row>
     <row r="13" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
@@ -1643,179 +1709,179 @@
       <c r="AE13" s="17"/>
     </row>
     <row r="14" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="59"/>
-      <c r="S14" s="59"/>
-      <c r="T14" s="59"/>
-      <c r="U14" s="59"/>
-      <c r="V14" s="59"/>
-      <c r="W14" s="59"/>
-      <c r="X14" s="59"/>
-      <c r="Y14" s="59"/>
-      <c r="Z14" s="59"/>
-      <c r="AA14" s="59"/>
-      <c r="AB14" s="59"/>
-      <c r="AC14" s="59"/>
-      <c r="AD14" s="59"/>
-      <c r="AE14" s="60"/>
+      <c r="A14" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="65"/>
+      <c r="O14" s="65"/>
+      <c r="P14" s="65"/>
+      <c r="Q14" s="65"/>
+      <c r="R14" s="65"/>
+      <c r="S14" s="65"/>
+      <c r="T14" s="65"/>
+      <c r="U14" s="65"/>
+      <c r="V14" s="65"/>
+      <c r="W14" s="65"/>
+      <c r="X14" s="65"/>
+      <c r="Y14" s="65"/>
+      <c r="Z14" s="65"/>
+      <c r="AA14" s="65"/>
+      <c r="AB14" s="65"/>
+      <c r="AC14" s="65"/>
+      <c r="AD14" s="65"/>
+      <c r="AE14" s="66"/>
     </row>
     <row r="15" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="65"/>
+      <c r="O15" s="65"/>
+      <c r="P15" s="65"/>
+      <c r="Q15" s="65"/>
+      <c r="R15" s="65"/>
+      <c r="S15" s="65"/>
+      <c r="T15" s="65"/>
+      <c r="U15" s="65"/>
+      <c r="V15" s="65"/>
+      <c r="W15" s="65"/>
+      <c r="X15" s="65"/>
+      <c r="Y15" s="65"/>
+      <c r="Z15" s="65"/>
+      <c r="AA15" s="65"/>
+      <c r="AB15" s="65"/>
+      <c r="AC15" s="65"/>
+      <c r="AD15" s="65"/>
+      <c r="AE15" s="66"/>
+    </row>
+    <row r="16" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="65"/>
+      <c r="O16" s="65"/>
+      <c r="P16" s="65"/>
+      <c r="Q16" s="65"/>
+      <c r="R16" s="65"/>
+      <c r="S16" s="65"/>
+      <c r="T16" s="65"/>
+      <c r="U16" s="65"/>
+      <c r="V16" s="65"/>
+      <c r="W16" s="65"/>
+      <c r="X16" s="65"/>
+      <c r="Y16" s="65"/>
+      <c r="Z16" s="65"/>
+      <c r="AA16" s="65"/>
+      <c r="AB16" s="65"/>
+      <c r="AC16" s="65"/>
+      <c r="AD16" s="65"/>
+      <c r="AE16" s="66"/>
+    </row>
+    <row r="17" spans="1:31" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="59"/>
-      <c r="S15" s="59"/>
-      <c r="T15" s="59"/>
-      <c r="U15" s="59"/>
-      <c r="V15" s="59"/>
-      <c r="W15" s="59"/>
-      <c r="X15" s="59"/>
-      <c r="Y15" s="59"/>
-      <c r="Z15" s="59"/>
-      <c r="AA15" s="59"/>
-      <c r="AB15" s="59"/>
-      <c r="AC15" s="59"/>
-      <c r="AD15" s="59"/>
-      <c r="AE15" s="60"/>
-    </row>
-    <row r="16" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="59"/>
-      <c r="S16" s="59"/>
-      <c r="T16" s="59"/>
-      <c r="U16" s="59"/>
-      <c r="V16" s="59"/>
-      <c r="W16" s="59"/>
-      <c r="X16" s="59"/>
-      <c r="Y16" s="59"/>
-      <c r="Z16" s="59"/>
-      <c r="AA16" s="59"/>
-      <c r="AB16" s="59"/>
-      <c r="AC16" s="59"/>
-      <c r="AD16" s="59"/>
-      <c r="AE16" s="60"/>
-    </row>
-    <row r="17" spans="1:31" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="59"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="59"/>
-      <c r="S17" s="59"/>
-      <c r="T17" s="59"/>
-      <c r="U17" s="59"/>
-      <c r="V17" s="59"/>
-      <c r="W17" s="59"/>
-      <c r="X17" s="59"/>
-      <c r="Y17" s="59"/>
-      <c r="Z17" s="59"/>
-      <c r="AA17" s="59"/>
-      <c r="AB17" s="59"/>
-      <c r="AC17" s="59"/>
-      <c r="AD17" s="59"/>
-      <c r="AE17" s="60"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="65"/>
+      <c r="O17" s="65"/>
+      <c r="P17" s="65"/>
+      <c r="Q17" s="65"/>
+      <c r="R17" s="65"/>
+      <c r="S17" s="65"/>
+      <c r="T17" s="65"/>
+      <c r="U17" s="65"/>
+      <c r="V17" s="65"/>
+      <c r="W17" s="65"/>
+      <c r="X17" s="65"/>
+      <c r="Y17" s="65"/>
+      <c r="Z17" s="65"/>
+      <c r="AA17" s="65"/>
+      <c r="AB17" s="65"/>
+      <c r="AC17" s="65"/>
+      <c r="AD17" s="65"/>
+      <c r="AE17" s="66"/>
     </row>
     <row r="18" spans="1:31" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="43"/>
-      <c r="T18" s="43"/>
-      <c r="U18" s="43"/>
-      <c r="V18" s="43"/>
-      <c r="W18" s="43"/>
-      <c r="X18" s="43"/>
-      <c r="Y18" s="43"/>
-      <c r="Z18" s="43"/>
-      <c r="AA18" s="43"/>
-      <c r="AB18" s="43"/>
-      <c r="AC18" s="43"/>
-      <c r="AD18" s="43"/>
-      <c r="AE18" s="43"/>
+      <c r="A18" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="41"/>
+      <c r="S18" s="41"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="41"/>
+      <c r="V18" s="41"/>
+      <c r="W18" s="41"/>
+      <c r="X18" s="41"/>
+      <c r="Y18" s="41"/>
+      <c r="Z18" s="41"/>
+      <c r="AA18" s="41"/>
+      <c r="AB18" s="41"/>
+      <c r="AC18" s="41"/>
+      <c r="AD18" s="41"/>
+      <c r="AE18" s="41"/>
     </row>
     <row r="19" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
@@ -1851,24 +1917,24 @@
       <c r="AE19" s="8"/>
     </row>
     <row r="20" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="78"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="78"/>
-      <c r="K20" s="78"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="78"/>
-      <c r="N20" s="79"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
+      <c r="A20" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
       <c r="S20" s="7"/>
@@ -1886,24 +1952,24 @@
       <c r="AE20" s="8"/>
     </row>
     <row r="21" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
+      <c r="A21" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
       <c r="S21" s="7"/>
@@ -1921,24 +1987,24 @@
       <c r="AE21" s="8"/>
     </row>
     <row r="22" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="61" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="63"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
+      <c r="A22" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="68"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="68"/>
+      <c r="M22" s="69"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
       <c r="S22" s="7"/>
@@ -1956,24 +2022,24 @@
       <c r="AE22" s="8"/>
     </row>
     <row r="23" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="61" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="62"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="63"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
+      <c r="A23" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="68"/>
+      <c r="M23" s="69"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
       <c r="S23" s="7"/>
@@ -1991,24 +2057,24 @@
       <c r="AE23" s="8"/>
     </row>
     <row r="24" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="62"/>
-      <c r="M24" s="63"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
+      <c r="A24" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="69"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
       <c r="S24" s="7"/>
@@ -2026,22 +2092,24 @@
       <c r="AE24" s="8"/>
     </row>
     <row r="25" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
+      <c r="A25" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="71"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="71"/>
+      <c r="L25" s="71"/>
+      <c r="M25" s="72"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
@@ -2059,24 +2127,24 @@
       <c r="AE25" s="8"/>
     </row>
     <row r="26" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
+      <c r="A26" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="71"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="71"/>
+      <c r="L26" s="71"/>
+      <c r="M26" s="72"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
@@ -2094,24 +2162,24 @@
       <c r="AE26" s="8"/>
     </row>
     <row r="27" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="45"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
+      <c r="A27" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="71"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="71"/>
+      <c r="K27" s="71"/>
+      <c r="L27" s="71"/>
+      <c r="M27" s="72"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
@@ -2129,24 +2197,24 @@
       <c r="AE27" s="8"/>
     </row>
     <row r="28" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="45"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
+      <c r="A28" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="71"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="71"/>
+      <c r="K28" s="71"/>
+      <c r="L28" s="71"/>
+      <c r="M28" s="72"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
@@ -2164,24 +2232,24 @@
       <c r="AE28" s="8"/>
     </row>
     <row r="29" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="45"/>
-      <c r="M29" s="46"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
+      <c r="A29" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="71"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="71"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="72"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
       <c r="S29" s="7"/>
@@ -2198,25 +2266,23 @@
       <c r="AD29" s="8"/>
       <c r="AE29" s="8"/>
     </row>
-    <row r="30" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="45"/>
-      <c r="M30" s="46"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
+    <row r="30" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="48"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
       <c r="S30" s="7"/>
@@ -2234,22 +2300,24 @@
       <c r="AE30" s="8"/>
     </row>
     <row r="31" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
+      <c r="A31" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
       <c r="S31" s="7"/>
@@ -2267,24 +2335,24 @@
       <c r="AE31" s="8"/>
     </row>
     <row r="32" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
+      <c r="A32" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
       <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
       <c r="S32" s="7"/>
@@ -2302,24 +2370,24 @@
       <c r="AE32" s="8"/>
     </row>
     <row r="33" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
+      <c r="A33" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
       <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
       <c r="S33" s="7"/>
@@ -2337,24 +2405,24 @@
       <c r="AE33" s="8"/>
     </row>
     <row r="34" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" s="62"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="62"/>
-      <c r="K34" s="62"/>
-      <c r="L34" s="62"/>
-      <c r="M34" s="63"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
+      <c r="A34" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
       <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
       <c r="S34" s="7"/>
@@ -2372,24 +2440,24 @@
       <c r="AE34" s="8"/>
     </row>
     <row r="35" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35" s="62"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="62"/>
-      <c r="J35" s="62"/>
-      <c r="K35" s="62"/>
-      <c r="L35" s="62"/>
-      <c r="M35" s="63"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="21"/>
-      <c r="P35" s="21"/>
+      <c r="A35" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="44"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="20"/>
       <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
       <c r="S35" s="7"/>
@@ -2407,24 +2475,22 @@
       <c r="AE35" s="8"/>
     </row>
     <row r="36" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="B36" s="62"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="62"/>
-      <c r="H36" s="62"/>
-      <c r="I36" s="62"/>
-      <c r="J36" s="62"/>
-      <c r="K36" s="62"/>
-      <c r="L36" s="62"/>
-      <c r="M36" s="63"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="21"/>
-      <c r="P36" s="21"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="20"/>
+      <c r="O36" s="20"/>
+      <c r="P36" s="20"/>
       <c r="Q36" s="7"/>
       <c r="R36" s="7"/>
       <c r="S36" s="7"/>
@@ -2442,24 +2508,24 @@
       <c r="AE36" s="8"/>
     </row>
     <row r="37" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="B37" s="62"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="62"/>
-      <c r="J37" s="62"/>
-      <c r="K37" s="62"/>
-      <c r="L37" s="62"/>
-      <c r="M37" s="63"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="21"/>
-      <c r="P37" s="21"/>
+      <c r="A37" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="20"/>
       <c r="Q37" s="7"/>
       <c r="R37" s="7"/>
       <c r="S37" s="7"/>
@@ -2477,24 +2543,24 @@
       <c r="AE37" s="8"/>
     </row>
     <row r="38" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="61" t="s">
-        <v>21</v>
-      </c>
-      <c r="B38" s="62"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="62"/>
-      <c r="H38" s="62"/>
-      <c r="I38" s="62"/>
-      <c r="J38" s="62"/>
-      <c r="K38" s="62"/>
-      <c r="L38" s="62"/>
-      <c r="M38" s="63"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="21"/>
-      <c r="P38" s="21"/>
+      <c r="A38" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="20"/>
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
       <c r="S38" s="7"/>
@@ -2512,24 +2578,24 @@
       <c r="AE38" s="8"/>
     </row>
     <row r="39" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="61" t="s">
-        <v>26</v>
-      </c>
-      <c r="B39" s="62"/>
-      <c r="C39" s="62"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="62"/>
-      <c r="J39" s="62"/>
-      <c r="K39" s="62"/>
-      <c r="L39" s="62"/>
-      <c r="M39" s="63"/>
-      <c r="N39" s="30"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="7"/>
+      <c r="A39" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="68"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="68"/>
+      <c r="I39" s="68"/>
+      <c r="J39" s="68"/>
+      <c r="K39" s="68"/>
+      <c r="L39" s="68"/>
+      <c r="M39" s="69"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="20"/>
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
       <c r="S39" s="7"/>
@@ -2547,24 +2613,24 @@
       <c r="AE39" s="8"/>
     </row>
     <row r="40" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="B40" s="62"/>
-      <c r="C40" s="62"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="62"/>
-      <c r="I40" s="62"/>
-      <c r="J40" s="62"/>
-      <c r="K40" s="62"/>
-      <c r="L40" s="62"/>
-      <c r="M40" s="63"/>
-      <c r="N40" s="30"/>
-      <c r="O40" s="7"/>
-      <c r="P40" s="7"/>
+      <c r="A40" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" s="68"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="68"/>
+      <c r="G40" s="68"/>
+      <c r="H40" s="68"/>
+      <c r="I40" s="68"/>
+      <c r="J40" s="68"/>
+      <c r="K40" s="68"/>
+      <c r="L40" s="68"/>
+      <c r="M40" s="69"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="20"/>
+      <c r="P40" s="20"/>
       <c r="Q40" s="7"/>
       <c r="R40" s="7"/>
       <c r="S40" s="7"/>
@@ -2582,24 +2648,24 @@
       <c r="AE40" s="8"/>
     </row>
     <row r="41" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="B41" s="62"/>
-      <c r="C41" s="62"/>
-      <c r="D41" s="62"/>
-      <c r="E41" s="62"/>
-      <c r="F41" s="62"/>
-      <c r="G41" s="62"/>
-      <c r="H41" s="62"/>
-      <c r="I41" s="62"/>
-      <c r="J41" s="62"/>
-      <c r="K41" s="62"/>
-      <c r="L41" s="62"/>
-      <c r="M41" s="63"/>
-      <c r="N41" s="30"/>
-      <c r="O41" s="7"/>
-      <c r="P41" s="7"/>
+      <c r="A41" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" s="68"/>
+      <c r="C41" s="68"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="68"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="68"/>
+      <c r="I41" s="68"/>
+      <c r="J41" s="68"/>
+      <c r="K41" s="68"/>
+      <c r="L41" s="68"/>
+      <c r="M41" s="69"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="20"/>
+      <c r="P41" s="20"/>
       <c r="Q41" s="7"/>
       <c r="R41" s="7"/>
       <c r="S41" s="7"/>
@@ -2617,24 +2683,24 @@
       <c r="AE41" s="8"/>
     </row>
     <row r="42" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" s="62"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="62"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="62"/>
-      <c r="J42" s="62"/>
-      <c r="K42" s="62"/>
-      <c r="L42" s="62"/>
-      <c r="M42" s="63"/>
-      <c r="N42" s="31"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="7"/>
+      <c r="A42" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" s="68"/>
+      <c r="C42" s="68"/>
+      <c r="D42" s="68"/>
+      <c r="E42" s="68"/>
+      <c r="F42" s="68"/>
+      <c r="G42" s="68"/>
+      <c r="H42" s="68"/>
+      <c r="I42" s="68"/>
+      <c r="J42" s="68"/>
+      <c r="K42" s="68"/>
+      <c r="L42" s="68"/>
+      <c r="M42" s="69"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="20"/>
+      <c r="P42" s="20"/>
       <c r="Q42" s="7"/>
       <c r="R42" s="7"/>
       <c r="S42" s="7"/>
@@ -2651,23 +2717,25 @@
       <c r="AD42" s="8"/>
       <c r="AE42" s="8"/>
     </row>
-    <row r="43" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="7"/>
+    <row r="43" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" s="71"/>
+      <c r="C43" s="71"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="71"/>
+      <c r="F43" s="71"/>
+      <c r="G43" s="71"/>
+      <c r="H43" s="71"/>
+      <c r="I43" s="71"/>
+      <c r="J43" s="71"/>
+      <c r="K43" s="71"/>
+      <c r="L43" s="71"/>
+      <c r="M43" s="72"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="20"/>
+      <c r="P43" s="20"/>
       <c r="Q43" s="7"/>
       <c r="R43" s="7"/>
       <c r="S43" s="7"/>
@@ -2684,25 +2752,25 @@
       <c r="AD43" s="8"/>
       <c r="AE43" s="8"/>
     </row>
-    <row r="44" spans="1:31" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="B44" s="65"/>
-      <c r="C44" s="65"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="65"/>
-      <c r="F44" s="65"/>
-      <c r="G44" s="65"/>
-      <c r="H44" s="65"/>
-      <c r="I44" s="65"/>
-      <c r="J44" s="65"/>
-      <c r="K44" s="65"/>
-      <c r="L44" s="65"/>
-      <c r="M44" s="65"/>
-      <c r="N44" s="32"/>
-      <c r="O44" s="33"/>
-      <c r="P44" s="33"/>
+    <row r="44" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="51"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="51"/>
+      <c r="K44" s="51"/>
+      <c r="L44" s="51"/>
+      <c r="M44" s="52"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="20"/>
+      <c r="P44" s="20"/>
       <c r="Q44" s="7"/>
       <c r="R44" s="7"/>
       <c r="S44" s="7"/>
@@ -2719,23 +2787,25 @@
       <c r="AD44" s="8"/>
       <c r="AE44" s="8"/>
     </row>
-    <row r="45" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="21"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="21"/>
-      <c r="L45" s="21"/>
-      <c r="M45" s="21"/>
-      <c r="N45" s="21"/>
-      <c r="O45" s="21"/>
-      <c r="P45" s="21"/>
+    <row r="45" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="70" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" s="71"/>
+      <c r="C45" s="71"/>
+      <c r="D45" s="71"/>
+      <c r="E45" s="71"/>
+      <c r="F45" s="71"/>
+      <c r="G45" s="71"/>
+      <c r="H45" s="71"/>
+      <c r="I45" s="71"/>
+      <c r="J45" s="71"/>
+      <c r="K45" s="71"/>
+      <c r="L45" s="71"/>
+      <c r="M45" s="72"/>
+      <c r="N45" s="29"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
       <c r="R45" s="7"/>
       <c r="S45" s="7"/>
@@ -2752,25 +2822,25 @@
       <c r="AD45" s="8"/>
       <c r="AE45" s="8"/>
     </row>
-    <row r="46" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="24"/>
-      <c r="K46" s="24"/>
-      <c r="L46" s="24"/>
-      <c r="M46" s="24"/>
-      <c r="N46" s="25"/>
-      <c r="O46" s="21"/>
-      <c r="P46" s="21"/>
+    <row r="46" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="51"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="51"/>
+      <c r="K46" s="51"/>
+      <c r="L46" s="51"/>
+      <c r="M46" s="52"/>
+      <c r="N46" s="29"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
       <c r="R46" s="7"/>
       <c r="S46" s="7"/>
@@ -2787,25 +2857,25 @@
       <c r="AD46" s="8"/>
       <c r="AE46" s="8"/>
     </row>
-    <row r="47" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="B47" s="62"/>
-      <c r="C47" s="62"/>
-      <c r="D47" s="62"/>
-      <c r="E47" s="62"/>
-      <c r="F47" s="62"/>
-      <c r="G47" s="62"/>
-      <c r="H47" s="62"/>
-      <c r="I47" s="62"/>
-      <c r="J47" s="62"/>
-      <c r="K47" s="62"/>
-      <c r="L47" s="62"/>
-      <c r="M47" s="63"/>
-      <c r="N47" s="22"/>
-      <c r="O47" s="21"/>
-      <c r="P47" s="21"/>
+    <row r="47" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" s="71"/>
+      <c r="C47" s="71"/>
+      <c r="D47" s="71"/>
+      <c r="E47" s="71"/>
+      <c r="F47" s="71"/>
+      <c r="G47" s="71"/>
+      <c r="H47" s="71"/>
+      <c r="I47" s="71"/>
+      <c r="J47" s="71"/>
+      <c r="K47" s="71"/>
+      <c r="L47" s="71"/>
+      <c r="M47" s="72"/>
+      <c r="N47" s="29"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
       <c r="R47" s="7"/>
       <c r="S47" s="7"/>
@@ -2822,25 +2892,25 @@
       <c r="AD47" s="8"/>
       <c r="AE47" s="8"/>
     </row>
-    <row r="48" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48" s="62"/>
-      <c r="C48" s="62"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="62"/>
-      <c r="F48" s="62"/>
-      <c r="G48" s="62"/>
-      <c r="H48" s="62"/>
-      <c r="I48" s="62"/>
-      <c r="J48" s="62"/>
-      <c r="K48" s="62"/>
-      <c r="L48" s="62"/>
-      <c r="M48" s="63"/>
-      <c r="N48" s="26"/>
-      <c r="O48" s="21"/>
-      <c r="P48" s="21"/>
+    <row r="48" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" s="71"/>
+      <c r="C48" s="71"/>
+      <c r="D48" s="71"/>
+      <c r="E48" s="71"/>
+      <c r="F48" s="71"/>
+      <c r="G48" s="71"/>
+      <c r="H48" s="71"/>
+      <c r="I48" s="71"/>
+      <c r="J48" s="71"/>
+      <c r="K48" s="71"/>
+      <c r="L48" s="71"/>
+      <c r="M48" s="72"/>
+      <c r="N48" s="29"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
       <c r="Q48" s="7"/>
       <c r="R48" s="7"/>
       <c r="S48" s="7"/>
@@ -2890,201 +2960,180 @@
       <c r="AD49" s="8"/>
       <c r="AE49" s="8"/>
     </row>
-    <row r="50" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="B50" s="53"/>
-      <c r="C50" s="53"/>
-      <c r="D50" s="53"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="53"/>
-      <c r="G50" s="53"/>
-      <c r="H50" s="53"/>
-      <c r="I50" s="53"/>
-      <c r="J50" s="53"/>
-      <c r="K50" s="53"/>
-      <c r="L50" s="53"/>
-      <c r="M50" s="53"/>
-      <c r="N50" s="53"/>
-      <c r="O50" s="53"/>
-      <c r="P50" s="53"/>
-      <c r="Q50" s="53"/>
-      <c r="R50" s="53"/>
-      <c r="S50" s="53"/>
-      <c r="T50" s="53"/>
-      <c r="U50" s="53"/>
-      <c r="V50" s="53"/>
-      <c r="W50" s="53"/>
-      <c r="X50" s="53"/>
-      <c r="Y50" s="53"/>
-      <c r="Z50" s="53"/>
-      <c r="AA50" s="53"/>
-      <c r="AB50" s="53"/>
-      <c r="AC50" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD50" s="67"/>
-      <c r="AE50" s="67"/>
-      <c r="AF50" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG50" s="67"/>
-      <c r="AH50" s="71"/>
-    </row>
-    <row r="51" spans="1:34" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="B51" s="73"/>
-      <c r="C51" s="73"/>
-      <c r="D51" s="73"/>
-      <c r="E51" s="73"/>
-      <c r="F51" s="73"/>
-      <c r="G51" s="73"/>
-      <c r="H51" s="73"/>
-      <c r="I51" s="73"/>
-      <c r="J51" s="73"/>
-      <c r="K51" s="73"/>
-      <c r="L51" s="73"/>
-      <c r="M51" s="73"/>
-      <c r="N51" s="73"/>
-      <c r="O51" s="73"/>
-      <c r="P51" s="73"/>
-      <c r="Q51" s="73"/>
-      <c r="R51" s="73"/>
-      <c r="S51" s="73"/>
-      <c r="T51" s="73"/>
-      <c r="U51" s="73"/>
-      <c r="V51" s="73"/>
-      <c r="W51" s="73"/>
-      <c r="X51" s="73"/>
-      <c r="Y51" s="73"/>
-      <c r="Z51" s="73"/>
-      <c r="AA51" s="73"/>
-      <c r="AB51" s="73"/>
-      <c r="AC51" s="66"/>
-      <c r="AD51" s="67"/>
-      <c r="AE51" s="67"/>
-      <c r="AF51" s="66"/>
-      <c r="AG51" s="67"/>
-      <c r="AH51" s="71"/>
-    </row>
-    <row r="52" spans="1:34" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="74" t="s">
-        <v>51</v>
-      </c>
-      <c r="B52" s="75"/>
-      <c r="C52" s="75"/>
-      <c r="D52" s="75"/>
-      <c r="E52" s="75"/>
-      <c r="F52" s="75"/>
-      <c r="G52" s="75"/>
-      <c r="H52" s="75"/>
-      <c r="I52" s="75"/>
-      <c r="J52" s="75"/>
-      <c r="K52" s="75"/>
-      <c r="L52" s="75"/>
-      <c r="M52" s="75"/>
-      <c r="N52" s="75"/>
-      <c r="O52" s="75"/>
-      <c r="P52" s="75"/>
-      <c r="Q52" s="75"/>
-      <c r="R52" s="75"/>
-      <c r="S52" s="75"/>
-      <c r="T52" s="75"/>
-      <c r="U52" s="75"/>
-      <c r="V52" s="75"/>
-      <c r="W52" s="75"/>
-      <c r="X52" s="75"/>
-      <c r="Y52" s="75"/>
-      <c r="Z52" s="75"/>
-      <c r="AA52" s="75"/>
-      <c r="AB52" s="75"/>
-      <c r="AC52" s="75"/>
-      <c r="AD52" s="75"/>
-      <c r="AE52" s="75"/>
-      <c r="AF52" s="75"/>
-      <c r="AG52" s="75"/>
-      <c r="AH52" s="76"/>
-    </row>
-    <row r="53" spans="1:34" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="68" t="s">
-        <v>39</v>
-      </c>
-      <c r="B53" s="69"/>
-      <c r="C53" s="69"/>
-      <c r="D53" s="69"/>
-      <c r="E53" s="69"/>
-      <c r="F53" s="69"/>
-      <c r="G53" s="69"/>
-      <c r="H53" s="69"/>
-      <c r="I53" s="69"/>
-      <c r="J53" s="69"/>
-      <c r="K53" s="69"/>
-      <c r="L53" s="69"/>
+    <row r="50" spans="1:34" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="73" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="74"/>
+      <c r="C50" s="74"/>
+      <c r="D50" s="74"/>
+      <c r="E50" s="74"/>
+      <c r="F50" s="74"/>
+      <c r="G50" s="74"/>
+      <c r="H50" s="74"/>
+      <c r="I50" s="74"/>
+      <c r="J50" s="74"/>
+      <c r="K50" s="74"/>
+      <c r="L50" s="74"/>
+      <c r="M50" s="74"/>
+      <c r="N50" s="30"/>
+      <c r="O50" s="31"/>
+      <c r="P50" s="31"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
+      <c r="S50" s="7"/>
+      <c r="T50" s="7"/>
+      <c r="U50" s="7"/>
+      <c r="V50" s="7"/>
+      <c r="W50" s="7"/>
+      <c r="X50" s="7"/>
+      <c r="Y50" s="7"/>
+      <c r="Z50" s="8"/>
+      <c r="AA50" s="8"/>
+      <c r="AB50" s="8"/>
+      <c r="AC50" s="8"/>
+      <c r="AD50" s="8"/>
+      <c r="AE50" s="8"/>
+    </row>
+    <row r="51" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="20"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="20"/>
+      <c r="M51" s="20"/>
+      <c r="N51" s="20"/>
+      <c r="O51" s="20"/>
+      <c r="P51" s="20"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7"/>
+      <c r="S51" s="7"/>
+      <c r="T51" s="7"/>
+      <c r="U51" s="7"/>
+      <c r="V51" s="7"/>
+      <c r="W51" s="7"/>
+      <c r="X51" s="7"/>
+      <c r="Y51" s="7"/>
+      <c r="Z51" s="8"/>
+      <c r="AA51" s="8"/>
+      <c r="AB51" s="8"/>
+      <c r="AC51" s="8"/>
+      <c r="AD51" s="8"/>
+      <c r="AE51" s="8"/>
+    </row>
+    <row r="52" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="23"/>
+      <c r="K52" s="23"/>
+      <c r="L52" s="23"/>
+      <c r="M52" s="23"/>
+      <c r="N52" s="24"/>
+      <c r="O52" s="20"/>
+      <c r="P52" s="20"/>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="7"/>
+      <c r="S52" s="7"/>
+      <c r="T52" s="7"/>
+      <c r="U52" s="7"/>
+      <c r="V52" s="7"/>
+      <c r="W52" s="7"/>
+      <c r="X52" s="7"/>
+      <c r="Y52" s="7"/>
+      <c r="Z52" s="8"/>
+      <c r="AA52" s="8"/>
+      <c r="AB52" s="8"/>
+      <c r="AC52" s="8"/>
+      <c r="AD52" s="8"/>
+      <c r="AE52" s="8"/>
+    </row>
+    <row r="53" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="68"/>
+      <c r="C53" s="68"/>
+      <c r="D53" s="68"/>
+      <c r="E53" s="68"/>
+      <c r="F53" s="68"/>
+      <c r="G53" s="68"/>
+      <c r="H53" s="68"/>
+      <c r="I53" s="68"/>
+      <c r="J53" s="68"/>
+      <c r="K53" s="68"/>
+      <c r="L53" s="68"/>
       <c r="M53" s="69"/>
-      <c r="N53" s="69"/>
-      <c r="O53" s="69"/>
-      <c r="P53" s="69"/>
-      <c r="Q53" s="69"/>
-      <c r="R53" s="69"/>
-      <c r="S53" s="69"/>
-      <c r="T53" s="69"/>
-      <c r="U53" s="69"/>
-      <c r="V53" s="69"/>
-      <c r="W53" s="69"/>
-      <c r="X53" s="69"/>
-      <c r="Y53" s="69"/>
-      <c r="Z53" s="69"/>
-      <c r="AA53" s="69"/>
-      <c r="AB53" s="69"/>
-      <c r="AC53" s="69"/>
-      <c r="AD53" s="69"/>
-      <c r="AE53" s="69"/>
-      <c r="AF53" s="69"/>
-      <c r="AG53" s="69"/>
-      <c r="AH53" s="70"/>
-    </row>
-    <row r="54" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="B54" s="39"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="39"/>
-      <c r="F54" s="39"/>
-      <c r="G54" s="39"/>
-      <c r="H54" s="39"/>
-      <c r="I54" s="39"/>
-      <c r="J54" s="39"/>
-      <c r="K54" s="39"/>
-      <c r="L54" s="39"/>
-      <c r="M54" s="39"/>
-      <c r="N54" s="39"/>
-      <c r="O54" s="39"/>
-      <c r="P54" s="39"/>
-      <c r="Q54" s="39"/>
-      <c r="R54" s="39"/>
-      <c r="S54" s="39"/>
-      <c r="T54" s="39"/>
-      <c r="U54" s="39"/>
-      <c r="V54" s="39"/>
-      <c r="W54" s="39"/>
-      <c r="X54" s="39"/>
-      <c r="Y54" s="39"/>
-      <c r="Z54" s="39"/>
-      <c r="AA54" s="39"/>
-      <c r="AB54" s="39"/>
-      <c r="AC54" s="39"/>
-      <c r="AD54" s="40"/>
-      <c r="AE54" s="40"/>
-      <c r="AF54" s="40"/>
-      <c r="AG54" s="40"/>
-      <c r="AH54" s="41"/>
-    </row>
-    <row r="55" spans="1:34" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N53" s="21"/>
+      <c r="O53" s="20"/>
+      <c r="P53" s="20"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7"/>
+      <c r="S53" s="7"/>
+      <c r="T53" s="7"/>
+      <c r="U53" s="7"/>
+      <c r="V53" s="7"/>
+      <c r="W53" s="7"/>
+      <c r="X53" s="7"/>
+      <c r="Y53" s="7"/>
+      <c r="Z53" s="8"/>
+      <c r="AA53" s="8"/>
+      <c r="AB53" s="8"/>
+      <c r="AC53" s="8"/>
+      <c r="AD53" s="8"/>
+      <c r="AE53" s="8"/>
+    </row>
+    <row r="54" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" s="68"/>
+      <c r="C54" s="68"/>
+      <c r="D54" s="68"/>
+      <c r="E54" s="68"/>
+      <c r="F54" s="68"/>
+      <c r="G54" s="68"/>
+      <c r="H54" s="68"/>
+      <c r="I54" s="68"/>
+      <c r="J54" s="68"/>
+      <c r="K54" s="68"/>
+      <c r="L54" s="68"/>
+      <c r="M54" s="69"/>
+      <c r="N54" s="25"/>
+      <c r="O54" s="20"/>
+      <c r="P54" s="20"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="7"/>
+      <c r="T54" s="7"/>
+      <c r="U54" s="7"/>
+      <c r="V54" s="7"/>
+      <c r="W54" s="7"/>
+      <c r="X54" s="7"/>
+      <c r="Y54" s="7"/>
+      <c r="Z54" s="8"/>
+      <c r="AA54" s="8"/>
+      <c r="AB54" s="8"/>
+      <c r="AC54" s="8"/>
+      <c r="AD54" s="8"/>
+      <c r="AE54" s="8"/>
+    </row>
+    <row r="55" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -3117,182 +3166,201 @@
       <c r="AD55" s="8"/>
       <c r="AE55" s="8"/>
     </row>
-    <row r="56" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="B56" s="37"/>
-      <c r="C56" s="37"/>
-      <c r="D56" s="37"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="37"/>
-      <c r="K56" s="37"/>
-      <c r="L56" s="37"/>
-      <c r="M56" s="37"/>
-      <c r="N56" s="37"/>
-      <c r="O56" s="37"/>
-      <c r="P56" s="37"/>
-      <c r="Q56" s="37"/>
-      <c r="R56" s="37"/>
-      <c r="S56" s="37"/>
-      <c r="T56" s="37"/>
-      <c r="U56" s="37"/>
-      <c r="V56" s="37"/>
-      <c r="W56" s="37"/>
-      <c r="X56" s="37"/>
-      <c r="Y56" s="37"/>
-      <c r="Z56" s="34"/>
-      <c r="AA56" s="34"/>
-      <c r="AB56" s="34"/>
-      <c r="AC56" s="34"/>
-      <c r="AD56" s="34"/>
-      <c r="AE56" s="35"/>
-    </row>
-    <row r="57" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="B57" s="59"/>
-      <c r="C57" s="59"/>
-      <c r="D57" s="59"/>
-      <c r="E57" s="59"/>
-      <c r="F57" s="59"/>
-      <c r="G57" s="59"/>
-      <c r="H57" s="59"/>
-      <c r="I57" s="59"/>
-      <c r="J57" s="59"/>
-      <c r="K57" s="59"/>
-      <c r="L57" s="59"/>
-      <c r="M57" s="59"/>
-      <c r="N57" s="59"/>
-      <c r="O57" s="59"/>
-      <c r="P57" s="59"/>
-      <c r="Q57" s="59"/>
-      <c r="R57" s="59"/>
-      <c r="S57" s="59"/>
-      <c r="T57" s="59"/>
-      <c r="U57" s="59"/>
-      <c r="V57" s="59"/>
-      <c r="W57" s="59"/>
-      <c r="X57" s="59"/>
-      <c r="Y57" s="59"/>
-      <c r="Z57" s="59"/>
-      <c r="AA57" s="59"/>
-      <c r="AB57" s="59"/>
-      <c r="AC57" s="59"/>
-      <c r="AD57" s="59"/>
-      <c r="AE57" s="60"/>
-    </row>
-    <row r="58" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="B58" s="59"/>
-      <c r="C58" s="59"/>
-      <c r="D58" s="59"/>
-      <c r="E58" s="59"/>
-      <c r="F58" s="59"/>
-      <c r="G58" s="59"/>
-      <c r="H58" s="59"/>
-      <c r="I58" s="59"/>
-      <c r="J58" s="59"/>
-      <c r="K58" s="59"/>
-      <c r="L58" s="59"/>
-      <c r="M58" s="59"/>
-      <c r="N58" s="59"/>
-      <c r="O58" s="59"/>
-      <c r="P58" s="59"/>
-      <c r="Q58" s="59"/>
-      <c r="R58" s="59"/>
-      <c r="S58" s="59"/>
-      <c r="T58" s="59"/>
-      <c r="U58" s="59"/>
-      <c r="V58" s="59"/>
-      <c r="W58" s="59"/>
-      <c r="X58" s="59"/>
-      <c r="Y58" s="59"/>
-      <c r="Z58" s="59"/>
-      <c r="AA58" s="59"/>
-      <c r="AB58" s="59"/>
-      <c r="AC58" s="59"/>
-      <c r="AD58" s="59"/>
-      <c r="AE58" s="60"/>
-    </row>
-    <row r="59" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="B59" s="59"/>
-      <c r="C59" s="59"/>
-      <c r="D59" s="59"/>
-      <c r="E59" s="59"/>
-      <c r="F59" s="59"/>
-      <c r="G59" s="59"/>
-      <c r="H59" s="59"/>
-      <c r="I59" s="59"/>
-      <c r="J59" s="59"/>
-      <c r="K59" s="59"/>
-      <c r="L59" s="59"/>
-      <c r="M59" s="59"/>
-      <c r="N59" s="59"/>
-      <c r="O59" s="59"/>
-      <c r="P59" s="59"/>
-      <c r="Q59" s="59"/>
-      <c r="R59" s="59"/>
-      <c r="S59" s="59"/>
-      <c r="T59" s="59"/>
-      <c r="U59" s="59"/>
-      <c r="V59" s="59"/>
-      <c r="W59" s="59"/>
-      <c r="X59" s="59"/>
-      <c r="Y59" s="59"/>
-      <c r="Z59" s="59"/>
-      <c r="AA59" s="59"/>
-      <c r="AB59" s="59"/>
-      <c r="AC59" s="59"/>
-      <c r="AD59" s="59"/>
-      <c r="AE59" s="60"/>
-    </row>
-    <row r="60" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="B60" s="59"/>
-      <c r="C60" s="59"/>
-      <c r="D60" s="59"/>
-      <c r="E60" s="59"/>
-      <c r="F60" s="59"/>
-      <c r="G60" s="59"/>
-      <c r="H60" s="59"/>
-      <c r="I60" s="59"/>
-      <c r="J60" s="59"/>
-      <c r="K60" s="59"/>
-      <c r="L60" s="59"/>
-      <c r="M60" s="59"/>
-      <c r="N60" s="59"/>
-      <c r="O60" s="59"/>
-      <c r="P60" s="59"/>
-      <c r="Q60" s="59"/>
-      <c r="R60" s="59"/>
-      <c r="S60" s="59"/>
-      <c r="T60" s="59"/>
-      <c r="U60" s="59"/>
-      <c r="V60" s="59"/>
-      <c r="W60" s="59"/>
-      <c r="X60" s="59"/>
-      <c r="Y60" s="59"/>
-      <c r="Z60" s="59"/>
-      <c r="AA60" s="59"/>
-      <c r="AB60" s="59"/>
-      <c r="AC60" s="59"/>
-      <c r="AD60" s="59"/>
-      <c r="AE60" s="60"/>
-    </row>
-    <row r="61" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="59"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="59"/>
+      <c r="F56" s="59"/>
+      <c r="G56" s="59"/>
+      <c r="H56" s="59"/>
+      <c r="I56" s="59"/>
+      <c r="J56" s="59"/>
+      <c r="K56" s="59"/>
+      <c r="L56" s="59"/>
+      <c r="M56" s="59"/>
+      <c r="N56" s="59"/>
+      <c r="O56" s="59"/>
+      <c r="P56" s="59"/>
+      <c r="Q56" s="59"/>
+      <c r="R56" s="59"/>
+      <c r="S56" s="59"/>
+      <c r="T56" s="59"/>
+      <c r="U56" s="59"/>
+      <c r="V56" s="59"/>
+      <c r="W56" s="59"/>
+      <c r="X56" s="59"/>
+      <c r="Y56" s="59"/>
+      <c r="Z56" s="59"/>
+      <c r="AA56" s="59"/>
+      <c r="AB56" s="59"/>
+      <c r="AC56" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD56" s="76"/>
+      <c r="AE56" s="76"/>
+      <c r="AF56" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG56" s="76"/>
+      <c r="AH56" s="80"/>
+    </row>
+    <row r="57" spans="1:34" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="81" t="s">
+        <v>33</v>
+      </c>
+      <c r="B57" s="82"/>
+      <c r="C57" s="82"/>
+      <c r="D57" s="82"/>
+      <c r="E57" s="82"/>
+      <c r="F57" s="82"/>
+      <c r="G57" s="82"/>
+      <c r="H57" s="82"/>
+      <c r="I57" s="82"/>
+      <c r="J57" s="82"/>
+      <c r="K57" s="82"/>
+      <c r="L57" s="82"/>
+      <c r="M57" s="82"/>
+      <c r="N57" s="82"/>
+      <c r="O57" s="82"/>
+      <c r="P57" s="82"/>
+      <c r="Q57" s="82"/>
+      <c r="R57" s="82"/>
+      <c r="S57" s="82"/>
+      <c r="T57" s="82"/>
+      <c r="U57" s="82"/>
+      <c r="V57" s="82"/>
+      <c r="W57" s="82"/>
+      <c r="X57" s="82"/>
+      <c r="Y57" s="82"/>
+      <c r="Z57" s="82"/>
+      <c r="AA57" s="82"/>
+      <c r="AB57" s="82"/>
+      <c r="AC57" s="75"/>
+      <c r="AD57" s="76"/>
+      <c r="AE57" s="76"/>
+      <c r="AF57" s="75"/>
+      <c r="AG57" s="76"/>
+      <c r="AH57" s="80"/>
+    </row>
+    <row r="58" spans="1:34" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="83" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58" s="84"/>
+      <c r="C58" s="84"/>
+      <c r="D58" s="84"/>
+      <c r="E58" s="84"/>
+      <c r="F58" s="84"/>
+      <c r="G58" s="84"/>
+      <c r="H58" s="84"/>
+      <c r="I58" s="84"/>
+      <c r="J58" s="84"/>
+      <c r="K58" s="84"/>
+      <c r="L58" s="84"/>
+      <c r="M58" s="84"/>
+      <c r="N58" s="84"/>
+      <c r="O58" s="84"/>
+      <c r="P58" s="84"/>
+      <c r="Q58" s="84"/>
+      <c r="R58" s="84"/>
+      <c r="S58" s="84"/>
+      <c r="T58" s="84"/>
+      <c r="U58" s="84"/>
+      <c r="V58" s="84"/>
+      <c r="W58" s="84"/>
+      <c r="X58" s="84"/>
+      <c r="Y58" s="84"/>
+      <c r="Z58" s="84"/>
+      <c r="AA58" s="84"/>
+      <c r="AB58" s="84"/>
+      <c r="AC58" s="84"/>
+      <c r="AD58" s="84"/>
+      <c r="AE58" s="84"/>
+      <c r="AF58" s="84"/>
+      <c r="AG58" s="84"/>
+      <c r="AH58" s="85"/>
+    </row>
+    <row r="59" spans="1:34" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="B59" s="78"/>
+      <c r="C59" s="78"/>
+      <c r="D59" s="78"/>
+      <c r="E59" s="78"/>
+      <c r="F59" s="78"/>
+      <c r="G59" s="78"/>
+      <c r="H59" s="78"/>
+      <c r="I59" s="78"/>
+      <c r="J59" s="78"/>
+      <c r="K59" s="78"/>
+      <c r="L59" s="78"/>
+      <c r="M59" s="78"/>
+      <c r="N59" s="78"/>
+      <c r="O59" s="78"/>
+      <c r="P59" s="78"/>
+      <c r="Q59" s="78"/>
+      <c r="R59" s="78"/>
+      <c r="S59" s="78"/>
+      <c r="T59" s="78"/>
+      <c r="U59" s="78"/>
+      <c r="V59" s="78"/>
+      <c r="W59" s="78"/>
+      <c r="X59" s="78"/>
+      <c r="Y59" s="78"/>
+      <c r="Z59" s="78"/>
+      <c r="AA59" s="78"/>
+      <c r="AB59" s="78"/>
+      <c r="AC59" s="78"/>
+      <c r="AD59" s="78"/>
+      <c r="AE59" s="78"/>
+      <c r="AF59" s="78"/>
+      <c r="AG59" s="78"/>
+      <c r="AH59" s="79"/>
+    </row>
+    <row r="60" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B60" s="37"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="37"/>
+      <c r="J60" s="37"/>
+      <c r="K60" s="37"/>
+      <c r="L60" s="37"/>
+      <c r="M60" s="37"/>
+      <c r="N60" s="37"/>
+      <c r="O60" s="37"/>
+      <c r="P60" s="37"/>
+      <c r="Q60" s="37"/>
+      <c r="R60" s="37"/>
+      <c r="S60" s="37"/>
+      <c r="T60" s="37"/>
+      <c r="U60" s="37"/>
+      <c r="V60" s="37"/>
+      <c r="W60" s="37"/>
+      <c r="X60" s="37"/>
+      <c r="Y60" s="37"/>
+      <c r="Z60" s="37"/>
+      <c r="AA60" s="37"/>
+      <c r="AB60" s="37"/>
+      <c r="AC60" s="37"/>
+      <c r="AD60" s="38"/>
+      <c r="AE60" s="38"/>
+      <c r="AF60" s="38"/>
+      <c r="AG60" s="38"/>
+      <c r="AH60" s="39"/>
+    </row>
+    <row r="61" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -3326,324 +3394,536 @@
       <c r="AE61" s="8"/>
     </row>
     <row r="62" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="7"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="7"/>
-      <c r="K62" s="7"/>
-      <c r="L62" s="7"/>
-      <c r="M62" s="7"/>
-      <c r="N62" s="7"/>
-      <c r="O62" s="7"/>
-      <c r="P62" s="7"/>
-      <c r="Q62" s="7"/>
-      <c r="R62" s="7"/>
-      <c r="S62" s="7"/>
-      <c r="T62" s="7"/>
-      <c r="U62" s="7"/>
-      <c r="V62" s="7"/>
-      <c r="W62" s="7"/>
-      <c r="X62" s="7"/>
-      <c r="Y62" s="7"/>
-      <c r="Z62" s="8"/>
-      <c r="AA62" s="8"/>
-      <c r="AB62" s="8"/>
-      <c r="AC62" s="8"/>
-      <c r="AD62" s="8"/>
-      <c r="AE62" s="8"/>
-    </row>
-    <row r="63" spans="1:34" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="7"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
-      <c r="L63" s="7"/>
-      <c r="M63" s="7"/>
-      <c r="N63" s="7"/>
-      <c r="O63" s="7"/>
-      <c r="P63" s="7"/>
-      <c r="Q63" s="7"/>
-      <c r="R63" s="7"/>
-      <c r="S63" s="7"/>
-      <c r="T63" s="7"/>
-      <c r="U63" s="7"/>
-      <c r="V63" s="7"/>
-      <c r="W63" s="7"/>
-      <c r="X63" s="7"/>
-      <c r="Y63" s="7"/>
-      <c r="Z63" s="8"/>
-      <c r="AA63" s="8"/>
-      <c r="AB63" s="8"/>
-      <c r="AC63" s="8"/>
-      <c r="AD63" s="8"/>
-      <c r="AE63" s="8"/>
-    </row>
-    <row r="64" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="48"/>
-      <c r="B64" s="48"/>
-      <c r="C64" s="48"/>
-      <c r="D64" s="48"/>
-      <c r="E64" s="48"/>
-      <c r="F64" s="48"/>
-      <c r="G64" s="48"/>
-      <c r="H64" s="48"/>
-      <c r="I64" s="48"/>
-      <c r="J64" s="48"/>
-      <c r="K64" s="48"/>
-      <c r="L64" s="48"/>
-      <c r="M64" s="48"/>
-      <c r="N64" s="48"/>
-      <c r="O64" s="48"/>
-      <c r="P64" s="48"/>
-      <c r="Q64" s="48"/>
-      <c r="R64" s="48"/>
-      <c r="S64" s="48"/>
-      <c r="T64" s="48"/>
-      <c r="U64" s="48"/>
-      <c r="V64" s="48"/>
-      <c r="W64" s="48"/>
-      <c r="X64" s="48"/>
-      <c r="Y64" s="48"/>
-      <c r="Z64" s="48"/>
-      <c r="AA64" s="48"/>
-      <c r="AB64" s="48"/>
-      <c r="AC64" s="48"/>
-      <c r="AD64" s="48"/>
-      <c r="AE64" s="48"/>
-    </row>
-    <row r="65" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="1"/>
-      <c r="M65" s="1"/>
-      <c r="N65" s="1"/>
-      <c r="O65" s="1"/>
-      <c r="P65" s="1"/>
-      <c r="Q65" s="1"/>
-      <c r="R65" s="1"/>
-      <c r="S65" s="1"/>
-      <c r="T65" s="1"/>
-      <c r="U65" s="1"/>
-      <c r="V65" s="1"/>
-      <c r="W65" s="1"/>
-      <c r="X65" s="1"/>
-      <c r="Y65" s="1"/>
-      <c r="Z65" s="3"/>
-      <c r="AA65" s="3"/>
-      <c r="AB65" s="3"/>
-      <c r="AC65" s="3"/>
-      <c r="AD65" s="3"/>
-      <c r="AE65" s="3"/>
-    </row>
-    <row r="66" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
-      <c r="O66" s="1"/>
-      <c r="P66" s="1"/>
-      <c r="Q66" s="1"/>
-      <c r="R66" s="1"/>
-      <c r="S66" s="1"/>
-      <c r="T66" s="1"/>
-      <c r="U66" s="1"/>
-      <c r="V66" s="1"/>
-      <c r="W66" s="1"/>
-      <c r="X66" s="1"/>
-      <c r="Y66" s="1"/>
-      <c r="Z66" s="3"/>
-      <c r="AA66" s="3"/>
-      <c r="AB66" s="3"/>
-      <c r="AC66" s="3"/>
-      <c r="AD66" s="3"/>
-      <c r="AE66" s="3"/>
-    </row>
-    <row r="67" spans="1:34" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="B67" s="47"/>
-      <c r="C67" s="47"/>
-      <c r="D67" s="47"/>
-      <c r="E67" s="47"/>
-      <c r="F67" s="47"/>
-      <c r="G67" s="47"/>
-      <c r="H67" s="47"/>
-      <c r="I67" s="47"/>
-      <c r="J67" s="47"/>
-      <c r="K67" s="47"/>
-      <c r="L67" s="47"/>
-      <c r="M67" s="47"/>
-      <c r="N67" s="47"/>
-      <c r="O67" s="47"/>
-      <c r="P67" s="47"/>
-      <c r="Q67" s="47"/>
-      <c r="R67" s="47"/>
-      <c r="S67" s="47"/>
-      <c r="T67" s="47"/>
-      <c r="U67" s="47"/>
-      <c r="V67" s="47"/>
-      <c r="W67" s="47"/>
-      <c r="X67" s="47"/>
-      <c r="Y67" s="47"/>
-      <c r="Z67" s="47"/>
-      <c r="AA67" s="47"/>
-      <c r="AB67" s="47"/>
-      <c r="AC67" s="47"/>
-      <c r="AD67" s="47"/>
-      <c r="AE67" s="47"/>
-      <c r="AF67" s="47"/>
-      <c r="AG67" s="47"/>
-      <c r="AH67" s="47"/>
+      <c r="A62" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" s="35"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="35"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="35"/>
+      <c r="J62" s="35"/>
+      <c r="K62" s="35"/>
+      <c r="L62" s="35"/>
+      <c r="M62" s="35"/>
+      <c r="N62" s="35"/>
+      <c r="O62" s="35"/>
+      <c r="P62" s="35"/>
+      <c r="Q62" s="35"/>
+      <c r="R62" s="35"/>
+      <c r="S62" s="35"/>
+      <c r="T62" s="35"/>
+      <c r="U62" s="35"/>
+      <c r="V62" s="35"/>
+      <c r="W62" s="35"/>
+      <c r="X62" s="35"/>
+      <c r="Y62" s="35"/>
+      <c r="Z62" s="32"/>
+      <c r="AA62" s="32"/>
+      <c r="AB62" s="32"/>
+      <c r="AC62" s="32"/>
+      <c r="AD62" s="32"/>
+      <c r="AE62" s="33"/>
+    </row>
+    <row r="63" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" s="65"/>
+      <c r="C63" s="65"/>
+      <c r="D63" s="65"/>
+      <c r="E63" s="65"/>
+      <c r="F63" s="65"/>
+      <c r="G63" s="65"/>
+      <c r="H63" s="65"/>
+      <c r="I63" s="65"/>
+      <c r="J63" s="65"/>
+      <c r="K63" s="65"/>
+      <c r="L63" s="65"/>
+      <c r="M63" s="65"/>
+      <c r="N63" s="65"/>
+      <c r="O63" s="65"/>
+      <c r="P63" s="65"/>
+      <c r="Q63" s="65"/>
+      <c r="R63" s="65"/>
+      <c r="S63" s="65"/>
+      <c r="T63" s="65"/>
+      <c r="U63" s="65"/>
+      <c r="V63" s="65"/>
+      <c r="W63" s="65"/>
+      <c r="X63" s="65"/>
+      <c r="Y63" s="65"/>
+      <c r="Z63" s="65"/>
+      <c r="AA63" s="65"/>
+      <c r="AB63" s="65"/>
+      <c r="AC63" s="65"/>
+      <c r="AD63" s="65"/>
+      <c r="AE63" s="66"/>
+    </row>
+    <row r="64" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="B64" s="65"/>
+      <c r="C64" s="65"/>
+      <c r="D64" s="65"/>
+      <c r="E64" s="65"/>
+      <c r="F64" s="65"/>
+      <c r="G64" s="65"/>
+      <c r="H64" s="65"/>
+      <c r="I64" s="65"/>
+      <c r="J64" s="65"/>
+      <c r="K64" s="65"/>
+      <c r="L64" s="65"/>
+      <c r="M64" s="65"/>
+      <c r="N64" s="65"/>
+      <c r="O64" s="65"/>
+      <c r="P64" s="65"/>
+      <c r="Q64" s="65"/>
+      <c r="R64" s="65"/>
+      <c r="S64" s="65"/>
+      <c r="T64" s="65"/>
+      <c r="U64" s="65"/>
+      <c r="V64" s="65"/>
+      <c r="W64" s="65"/>
+      <c r="X64" s="65"/>
+      <c r="Y64" s="65"/>
+      <c r="Z64" s="65"/>
+      <c r="AA64" s="65"/>
+      <c r="AB64" s="65"/>
+      <c r="AC64" s="65"/>
+      <c r="AD64" s="65"/>
+      <c r="AE64" s="66"/>
+    </row>
+    <row r="65" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="B65" s="65"/>
+      <c r="C65" s="65"/>
+      <c r="D65" s="65"/>
+      <c r="E65" s="65"/>
+      <c r="F65" s="65"/>
+      <c r="G65" s="65"/>
+      <c r="H65" s="65"/>
+      <c r="I65" s="65"/>
+      <c r="J65" s="65"/>
+      <c r="K65" s="65"/>
+      <c r="L65" s="65"/>
+      <c r="M65" s="65"/>
+      <c r="N65" s="65"/>
+      <c r="O65" s="65"/>
+      <c r="P65" s="65"/>
+      <c r="Q65" s="65"/>
+      <c r="R65" s="65"/>
+      <c r="S65" s="65"/>
+      <c r="T65" s="65"/>
+      <c r="U65" s="65"/>
+      <c r="V65" s="65"/>
+      <c r="W65" s="65"/>
+      <c r="X65" s="65"/>
+      <c r="Y65" s="65"/>
+      <c r="Z65" s="65"/>
+      <c r="AA65" s="65"/>
+      <c r="AB65" s="65"/>
+      <c r="AC65" s="65"/>
+      <c r="AD65" s="65"/>
+      <c r="AE65" s="66"/>
+    </row>
+    <row r="66" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="B66" s="65"/>
+      <c r="C66" s="65"/>
+      <c r="D66" s="65"/>
+      <c r="E66" s="65"/>
+      <c r="F66" s="65"/>
+      <c r="G66" s="65"/>
+      <c r="H66" s="65"/>
+      <c r="I66" s="65"/>
+      <c r="J66" s="65"/>
+      <c r="K66" s="65"/>
+      <c r="L66" s="65"/>
+      <c r="M66" s="65"/>
+      <c r="N66" s="65"/>
+      <c r="O66" s="65"/>
+      <c r="P66" s="65"/>
+      <c r="Q66" s="65"/>
+      <c r="R66" s="65"/>
+      <c r="S66" s="65"/>
+      <c r="T66" s="65"/>
+      <c r="U66" s="65"/>
+      <c r="V66" s="65"/>
+      <c r="W66" s="65"/>
+      <c r="X66" s="65"/>
+      <c r="Y66" s="65"/>
+      <c r="Z66" s="65"/>
+      <c r="AA66" s="65"/>
+      <c r="AB66" s="65"/>
+      <c r="AC66" s="65"/>
+      <c r="AD66" s="65"/>
+      <c r="AE66" s="66"/>
+    </row>
+    <row r="67" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7"/>
+      <c r="M67" s="7"/>
+      <c r="N67" s="7"/>
+      <c r="O67" s="7"/>
+      <c r="P67" s="7"/>
+      <c r="Q67" s="7"/>
+      <c r="R67" s="7"/>
+      <c r="S67" s="7"/>
+      <c r="T67" s="7"/>
+      <c r="U67" s="7"/>
+      <c r="V67" s="7"/>
+      <c r="W67" s="7"/>
+      <c r="X67" s="7"/>
+      <c r="Y67" s="7"/>
+      <c r="Z67" s="8"/>
+      <c r="AA67" s="8"/>
+      <c r="AB67" s="8"/>
+      <c r="AC67" s="8"/>
+      <c r="AD67" s="8"/>
+      <c r="AE67" s="8"/>
     </row>
     <row r="68" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="6"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
-      <c r="K68" s="6"/>
-      <c r="L68" s="6"/>
-      <c r="M68" s="6"/>
-      <c r="N68" s="6"/>
-      <c r="O68" s="6"/>
-      <c r="P68" s="6"/>
-      <c r="Q68" s="6"/>
-      <c r="R68" s="6"/>
-      <c r="S68" s="6"/>
-      <c r="T68" s="6"/>
-      <c r="U68" s="6"/>
-      <c r="V68" s="6"/>
-      <c r="W68" s="6"/>
-      <c r="X68" s="6"/>
-      <c r="Y68" s="6"/>
-    </row>
-    <row r="69" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="6"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="6"/>
-      <c r="K69" s="6"/>
-      <c r="L69" s="6"/>
-      <c r="M69" s="6"/>
-      <c r="N69" s="6"/>
-      <c r="O69" s="6"/>
-      <c r="P69" s="6"/>
-      <c r="Q69" s="6"/>
-      <c r="R69" s="6"/>
-      <c r="S69" s="6"/>
-      <c r="T69" s="6"/>
-      <c r="U69" s="6"/>
-      <c r="V69" s="6"/>
-      <c r="W69" s="6"/>
-      <c r="X69" s="6"/>
-      <c r="Y69" s="6"/>
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7"/>
+      <c r="M68" s="7"/>
+      <c r="N68" s="7"/>
+      <c r="O68" s="7"/>
+      <c r="P68" s="7"/>
+      <c r="Q68" s="7"/>
+      <c r="R68" s="7"/>
+      <c r="S68" s="7"/>
+      <c r="T68" s="7"/>
+      <c r="U68" s="7"/>
+      <c r="V68" s="7"/>
+      <c r="W68" s="7"/>
+      <c r="X68" s="7"/>
+      <c r="Y68" s="7"/>
+      <c r="Z68" s="8"/>
+      <c r="AA68" s="8"/>
+      <c r="AB68" s="8"/>
+      <c r="AC68" s="8"/>
+      <c r="AD68" s="8"/>
+      <c r="AE68" s="8"/>
+    </row>
+    <row r="69" spans="1:34" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
+      <c r="M69" s="7"/>
+      <c r="N69" s="7"/>
+      <c r="O69" s="7"/>
+      <c r="P69" s="7"/>
+      <c r="Q69" s="7"/>
+      <c r="R69" s="7"/>
+      <c r="S69" s="7"/>
+      <c r="T69" s="7"/>
+      <c r="U69" s="7"/>
+      <c r="V69" s="7"/>
+      <c r="W69" s="7"/>
+      <c r="X69" s="7"/>
+      <c r="Y69" s="7"/>
+      <c r="Z69" s="8"/>
+      <c r="AA69" s="8"/>
+      <c r="AB69" s="8"/>
+      <c r="AC69" s="8"/>
+      <c r="AD69" s="8"/>
+      <c r="AE69" s="8"/>
     </row>
     <row r="70" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="6"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
-      <c r="K70" s="6"/>
-      <c r="L70" s="6"/>
-      <c r="M70" s="6"/>
-      <c r="N70" s="6"/>
-      <c r="O70" s="6"/>
-      <c r="P70" s="6"/>
-      <c r="Q70" s="6"/>
-      <c r="R70" s="6"/>
-      <c r="S70" s="6"/>
-      <c r="T70" s="6"/>
-      <c r="U70" s="6"/>
-      <c r="V70" s="6"/>
-      <c r="W70" s="6"/>
-      <c r="X70" s="6"/>
-      <c r="Y70" s="6"/>
+      <c r="A70" s="54"/>
+      <c r="B70" s="54"/>
+      <c r="C70" s="54"/>
+      <c r="D70" s="54"/>
+      <c r="E70" s="54"/>
+      <c r="F70" s="54"/>
+      <c r="G70" s="54"/>
+      <c r="H70" s="54"/>
+      <c r="I70" s="54"/>
+      <c r="J70" s="54"/>
+      <c r="K70" s="54"/>
+      <c r="L70" s="54"/>
+      <c r="M70" s="54"/>
+      <c r="N70" s="54"/>
+      <c r="O70" s="54"/>
+      <c r="P70" s="54"/>
+      <c r="Q70" s="54"/>
+      <c r="R70" s="54"/>
+      <c r="S70" s="54"/>
+      <c r="T70" s="54"/>
+      <c r="U70" s="54"/>
+      <c r="V70" s="54"/>
+      <c r="W70" s="54"/>
+      <c r="X70" s="54"/>
+      <c r="Y70" s="54"/>
+      <c r="Z70" s="54"/>
+      <c r="AA70" s="54"/>
+      <c r="AB70" s="54"/>
+      <c r="AC70" s="54"/>
+      <c r="AD70" s="54"/>
+      <c r="AE70" s="54"/>
+    </row>
+    <row r="71" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+      <c r="T71" s="1"/>
+      <c r="U71" s="1"/>
+      <c r="V71" s="1"/>
+      <c r="W71" s="1"/>
+      <c r="X71" s="1"/>
+      <c r="Y71" s="1"/>
+      <c r="Z71" s="3"/>
+      <c r="AA71" s="3"/>
+      <c r="AB71" s="3"/>
+      <c r="AC71" s="3"/>
+      <c r="AD71" s="3"/>
+      <c r="AE71" s="3"/>
+    </row>
+    <row r="72" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
+      <c r="S72" s="1"/>
+      <c r="T72" s="1"/>
+      <c r="U72" s="1"/>
+      <c r="V72" s="1"/>
+      <c r="W72" s="1"/>
+      <c r="X72" s="1"/>
+      <c r="Y72" s="1"/>
+      <c r="Z72" s="3"/>
+      <c r="AA72" s="3"/>
+      <c r="AB72" s="3"/>
+      <c r="AC72" s="3"/>
+      <c r="AD72" s="3"/>
+      <c r="AE72" s="3"/>
+    </row>
+    <row r="73" spans="1:34" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="B73" s="53"/>
+      <c r="C73" s="53"/>
+      <c r="D73" s="53"/>
+      <c r="E73" s="53"/>
+      <c r="F73" s="53"/>
+      <c r="G73" s="53"/>
+      <c r="H73" s="53"/>
+      <c r="I73" s="53"/>
+      <c r="J73" s="53"/>
+      <c r="K73" s="53"/>
+      <c r="L73" s="53"/>
+      <c r="M73" s="53"/>
+      <c r="N73" s="53"/>
+      <c r="O73" s="53"/>
+      <c r="P73" s="53"/>
+      <c r="Q73" s="53"/>
+      <c r="R73" s="53"/>
+      <c r="S73" s="53"/>
+      <c r="T73" s="53"/>
+      <c r="U73" s="53"/>
+      <c r="V73" s="53"/>
+      <c r="W73" s="53"/>
+      <c r="X73" s="53"/>
+      <c r="Y73" s="53"/>
+      <c r="Z73" s="53"/>
+      <c r="AA73" s="53"/>
+      <c r="AB73" s="53"/>
+      <c r="AC73" s="53"/>
+      <c r="AD73" s="53"/>
+      <c r="AE73" s="53"/>
+      <c r="AF73" s="53"/>
+      <c r="AG73" s="53"/>
+      <c r="AH73" s="53"/>
+    </row>
+    <row r="74" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="6"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6"/>
+      <c r="M74" s="6"/>
+      <c r="N74" s="6"/>
+      <c r="O74" s="6"/>
+      <c r="P74" s="6"/>
+      <c r="Q74" s="6"/>
+      <c r="R74" s="6"/>
+      <c r="S74" s="6"/>
+      <c r="T74" s="6"/>
+      <c r="U74" s="6"/>
+      <c r="V74" s="6"/>
+      <c r="W74" s="6"/>
+      <c r="X74" s="6"/>
+      <c r="Y74" s="6"/>
+    </row>
+    <row r="75" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="6"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
+      <c r="M75" s="6"/>
+      <c r="N75" s="6"/>
+      <c r="O75" s="6"/>
+      <c r="P75" s="6"/>
+      <c r="Q75" s="6"/>
+      <c r="R75" s="6"/>
+      <c r="S75" s="6"/>
+      <c r="T75" s="6"/>
+      <c r="U75" s="6"/>
+      <c r="V75" s="6"/>
+      <c r="W75" s="6"/>
+      <c r="X75" s="6"/>
+      <c r="Y75" s="6"/>
+    </row>
+    <row r="76" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="6"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="6"/>
+      <c r="N76" s="6"/>
+      <c r="O76" s="6"/>
+      <c r="P76" s="6"/>
+      <c r="Q76" s="6"/>
+      <c r="R76" s="6"/>
+      <c r="S76" s="6"/>
+      <c r="T76" s="6"/>
+      <c r="U76" s="6"/>
+      <c r="V76" s="6"/>
+      <c r="W76" s="6"/>
+      <c r="X76" s="6"/>
+      <c r="Y76" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="A58:AE58"/>
-    <mergeCell ref="A59:AE59"/>
-    <mergeCell ref="A60:AE60"/>
-    <mergeCell ref="A50:AB50"/>
-    <mergeCell ref="AC50:AE50"/>
-    <mergeCell ref="A53:AH53"/>
-    <mergeCell ref="AF50:AH50"/>
-    <mergeCell ref="A51:AB51"/>
-    <mergeCell ref="AC51:AE51"/>
-    <mergeCell ref="AF51:AH51"/>
-    <mergeCell ref="A52:AH52"/>
+  <mergeCells count="46">
+    <mergeCell ref="A65:AE65"/>
+    <mergeCell ref="A66:AE66"/>
+    <mergeCell ref="A56:AB56"/>
+    <mergeCell ref="AC56:AE56"/>
+    <mergeCell ref="A59:AH59"/>
+    <mergeCell ref="AF56:AH56"/>
+    <mergeCell ref="A57:AB57"/>
+    <mergeCell ref="AC57:AE57"/>
+    <mergeCell ref="AF57:AH57"/>
+    <mergeCell ref="A58:AH58"/>
+    <mergeCell ref="A53:M53"/>
+    <mergeCell ref="A50:M50"/>
+    <mergeCell ref="A54:M54"/>
+    <mergeCell ref="A63:AE63"/>
+    <mergeCell ref="A64:AE64"/>
     <mergeCell ref="A42:M42"/>
+    <mergeCell ref="A43:M43"/>
+    <mergeCell ref="A45:M45"/>
     <mergeCell ref="A47:M47"/>
-    <mergeCell ref="A44:M44"/>
     <mergeCell ref="A48:M48"/>
-    <mergeCell ref="A57:AE57"/>
-    <mergeCell ref="A37:M37"/>
-    <mergeCell ref="A38:M38"/>
+    <mergeCell ref="A23:M23"/>
+    <mergeCell ref="A24:M24"/>
     <mergeCell ref="A39:M39"/>
     <mergeCell ref="A40:M40"/>
     <mergeCell ref="A41:M41"/>
-    <mergeCell ref="A23:M23"/>
-    <mergeCell ref="A24:M24"/>
-    <mergeCell ref="A34:M34"/>
-    <mergeCell ref="A35:M35"/>
-    <mergeCell ref="A36:M36"/>
-    <mergeCell ref="A67:AH67"/>
-    <mergeCell ref="N64:V64"/>
-    <mergeCell ref="W64:AE64"/>
+    <mergeCell ref="A25:M25"/>
+    <mergeCell ref="A26:M26"/>
+    <mergeCell ref="A27:M27"/>
+    <mergeCell ref="A28:M28"/>
+    <mergeCell ref="A29:M29"/>
+    <mergeCell ref="A73:AH73"/>
+    <mergeCell ref="N70:V70"/>
+    <mergeCell ref="W70:AE70"/>
     <mergeCell ref="A2:AE2"/>
     <mergeCell ref="A4:AE4"/>
     <mergeCell ref="A3:AE3"/>
-    <mergeCell ref="A64:M64"/>
+    <mergeCell ref="A70:M70"/>
     <mergeCell ref="A6:AE6"/>
     <mergeCell ref="A7:AE7"/>
     <mergeCell ref="A10:AE10"/>
@@ -3657,10 +3937,9 @@
   <pageMargins left="0.98425196850393704" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="52" orientation="portrait" r:id="rId1"/>
   <headerFooter scaleWithDoc="0">
-    <oddHeader>&amp;C&amp;"Times New Roman,Negrita"&amp;8&amp;U
-RECOPILACIÓN DE NORMAS PARA SERVICIOS FINANCIEROS&amp;R&amp;"Times New Roman,Negrita Cursiva"&amp;7AUTORIDAD DE SUPERVISIÓN DEL SISTEMA FINANCIERO</oddHeader>
+    <oddHeader>&amp;R&amp;"Times New Roman,Negrita Cursiva"&amp;7AUTORIDAD DE SUPERVISIÓN DEL SISTEMA FINANCIERO</oddHeader>
     <oddFooter>&amp;L&amp;"Arial,Negrita"&amp;5&amp;K0033CCControl de versiones&amp;"Arial,Normal"&amp;K01+000
-Circular ASFI/472/2017 (última)&amp;R&amp;"Times New Roman,Normal"&amp;8Libro 1°
+Circular ASFI/740/2022 (última)&amp;R&amp;"Times New Roman,Normal"&amp;8Libro 1°
 Título III
 Capítulo VIII
 Anexo 3.2

--- a/normativa/Anexos/L01T03C08/L01T03C08A03-2.xlsx
+++ b/normativa/Anexos/L01T03C08/L01T03C08A03-2.xlsx
@@ -217,29 +217,6 @@
   </si>
   <si>
     <t>Tipo de acción (Apertura, Traslado o Retiro):</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(1)</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>De acuerdo al "Manual de Georeferenciación de Puntos de Atención Financiera", disponible en el sitio web de la Red Supernet.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -356,6 +333,39 @@
   </si>
   <si>
     <t>10. Acera adaptada si se trata de un cajero externo con recinto</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(1)</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>De acuerdo al "Manual de Georeferenciación de Puntos de Atención Financiera", disponible en el sitio web de la Red ASFINet</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -790,6 +800,78 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -805,12 +887,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -822,72 +898,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1243,8 +1253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="A46" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="M51" sqref="M51"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="A59" zoomScale="115" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1295,109 +1305,109 @@
       <c r="AE1" s="3"/>
     </row>
     <row r="2" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="55"/>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="55"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="79"/>
+      <c r="Z2" s="79"/>
+      <c r="AA2" s="79"/>
+      <c r="AB2" s="79"/>
+      <c r="AC2" s="79"/>
+      <c r="AD2" s="79"/>
+      <c r="AE2" s="79"/>
     </row>
     <row r="3" spans="1:31" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="57"/>
-      <c r="T3" s="57"/>
-      <c r="U3" s="57"/>
-      <c r="V3" s="57"/>
-      <c r="W3" s="57"/>
-      <c r="X3" s="57"/>
-      <c r="Y3" s="57"/>
-      <c r="Z3" s="57"/>
-      <c r="AA3" s="57"/>
-      <c r="AB3" s="57"/>
-      <c r="AC3" s="57"/>
-      <c r="AD3" s="57"/>
-      <c r="AE3" s="57"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="81"/>
+      <c r="T3" s="81"/>
+      <c r="U3" s="81"/>
+      <c r="V3" s="81"/>
+      <c r="W3" s="81"/>
+      <c r="X3" s="81"/>
+      <c r="Y3" s="81"/>
+      <c r="Z3" s="81"/>
+      <c r="AA3" s="81"/>
+      <c r="AB3" s="81"/>
+      <c r="AC3" s="81"/>
+      <c r="AD3" s="81"/>
+      <c r="AE3" s="81"/>
     </row>
     <row r="4" spans="1:31" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="56"/>
-      <c r="T4" s="56"/>
-      <c r="U4" s="56"/>
-      <c r="V4" s="56"/>
-      <c r="W4" s="56"/>
-      <c r="X4" s="56"/>
-      <c r="Y4" s="56"/>
-      <c r="Z4" s="56"/>
-      <c r="AA4" s="56"/>
-      <c r="AB4" s="56"/>
-      <c r="AC4" s="56"/>
-      <c r="AD4" s="56"/>
-      <c r="AE4" s="56"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="80"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="80"/>
+      <c r="S4" s="80"/>
+      <c r="T4" s="80"/>
+      <c r="U4" s="80"/>
+      <c r="V4" s="80"/>
+      <c r="W4" s="80"/>
+      <c r="X4" s="80"/>
+      <c r="Y4" s="80"/>
+      <c r="Z4" s="80"/>
+      <c r="AA4" s="80"/>
+      <c r="AB4" s="80"/>
+      <c r="AC4" s="80"/>
+      <c r="AD4" s="80"/>
+      <c r="AE4" s="80"/>
     </row>
     <row r="5" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
@@ -1433,74 +1443,74 @@
       <c r="AE5" s="8"/>
     </row>
     <row r="6" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="59"/>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="59"/>
-      <c r="Y6" s="59"/>
-      <c r="Z6" s="59"/>
-      <c r="AA6" s="59"/>
-      <c r="AB6" s="59"/>
-      <c r="AC6" s="59"/>
-      <c r="AD6" s="59"/>
-      <c r="AE6" s="60"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="57"/>
+      <c r="U6" s="57"/>
+      <c r="V6" s="57"/>
+      <c r="W6" s="57"/>
+      <c r="X6" s="57"/>
+      <c r="Y6" s="57"/>
+      <c r="Z6" s="57"/>
+      <c r="AA6" s="57"/>
+      <c r="AB6" s="57"/>
+      <c r="AC6" s="57"/>
+      <c r="AD6" s="57"/>
+      <c r="AE6" s="82"/>
     </row>
     <row r="7" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="59"/>
-      <c r="U7" s="59"/>
-      <c r="V7" s="59"/>
-      <c r="W7" s="59"/>
-      <c r="X7" s="59"/>
-      <c r="Y7" s="59"/>
-      <c r="Z7" s="59"/>
-      <c r="AA7" s="59"/>
-      <c r="AB7" s="59"/>
-      <c r="AC7" s="59"/>
-      <c r="AD7" s="59"/>
-      <c r="AE7" s="60"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="57"/>
+      <c r="V7" s="57"/>
+      <c r="W7" s="57"/>
+      <c r="X7" s="57"/>
+      <c r="Y7" s="57"/>
+      <c r="Z7" s="57"/>
+      <c r="AA7" s="57"/>
+      <c r="AB7" s="57"/>
+      <c r="AC7" s="57"/>
+      <c r="AD7" s="57"/>
+      <c r="AE7" s="82"/>
     </row>
     <row r="8" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
@@ -1571,74 +1581,74 @@
       <c r="AE9" s="13"/>
     </row>
     <row r="10" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="62"/>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="62"/>
-      <c r="S10" s="62"/>
-      <c r="T10" s="62"/>
-      <c r="U10" s="62"/>
-      <c r="V10" s="62"/>
-      <c r="W10" s="62"/>
-      <c r="X10" s="62"/>
-      <c r="Y10" s="62"/>
-      <c r="Z10" s="62"/>
-      <c r="AA10" s="62"/>
-      <c r="AB10" s="62"/>
-      <c r="AC10" s="62"/>
-      <c r="AD10" s="62"/>
-      <c r="AE10" s="63"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="84"/>
+      <c r="N10" s="84"/>
+      <c r="O10" s="84"/>
+      <c r="P10" s="84"/>
+      <c r="Q10" s="84"/>
+      <c r="R10" s="84"/>
+      <c r="S10" s="84"/>
+      <c r="T10" s="84"/>
+      <c r="U10" s="84"/>
+      <c r="V10" s="84"/>
+      <c r="W10" s="84"/>
+      <c r="X10" s="84"/>
+      <c r="Y10" s="84"/>
+      <c r="Z10" s="84"/>
+      <c r="AA10" s="84"/>
+      <c r="AB10" s="84"/>
+      <c r="AC10" s="84"/>
+      <c r="AD10" s="84"/>
+      <c r="AE10" s="85"/>
     </row>
     <row r="11" spans="1:31" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="65"/>
-      <c r="O11" s="65"/>
-      <c r="P11" s="65"/>
-      <c r="Q11" s="65"/>
-      <c r="R11" s="65"/>
-      <c r="S11" s="65"/>
-      <c r="T11" s="65"/>
-      <c r="U11" s="65"/>
-      <c r="V11" s="65"/>
-      <c r="W11" s="65"/>
-      <c r="X11" s="65"/>
-      <c r="Y11" s="65"/>
-      <c r="Z11" s="65"/>
-      <c r="AA11" s="65"/>
-      <c r="AB11" s="65"/>
-      <c r="AC11" s="65"/>
-      <c r="AD11" s="65"/>
-      <c r="AE11" s="66"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="54"/>
+      <c r="S11" s="54"/>
+      <c r="T11" s="54"/>
+      <c r="U11" s="54"/>
+      <c r="V11" s="54"/>
+      <c r="W11" s="54"/>
+      <c r="X11" s="54"/>
+      <c r="Y11" s="54"/>
+      <c r="Z11" s="54"/>
+      <c r="AA11" s="54"/>
+      <c r="AB11" s="54"/>
+      <c r="AC11" s="54"/>
+      <c r="AD11" s="54"/>
+      <c r="AE11" s="55"/>
     </row>
     <row r="12" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
@@ -1709,148 +1719,148 @@
       <c r="AE13" s="17"/>
     </row>
     <row r="14" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
-      <c r="M14" s="65"/>
-      <c r="N14" s="65"/>
-      <c r="O14" s="65"/>
-      <c r="P14" s="65"/>
-      <c r="Q14" s="65"/>
-      <c r="R14" s="65"/>
-      <c r="S14" s="65"/>
-      <c r="T14" s="65"/>
-      <c r="U14" s="65"/>
-      <c r="V14" s="65"/>
-      <c r="W14" s="65"/>
-      <c r="X14" s="65"/>
-      <c r="Y14" s="65"/>
-      <c r="Z14" s="65"/>
-      <c r="AA14" s="65"/>
-      <c r="AB14" s="65"/>
-      <c r="AC14" s="65"/>
-      <c r="AD14" s="65"/>
-      <c r="AE14" s="66"/>
+      <c r="A14" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="54"/>
+      <c r="S14" s="54"/>
+      <c r="T14" s="54"/>
+      <c r="U14" s="54"/>
+      <c r="V14" s="54"/>
+      <c r="W14" s="54"/>
+      <c r="X14" s="54"/>
+      <c r="Y14" s="54"/>
+      <c r="Z14" s="54"/>
+      <c r="AA14" s="54"/>
+      <c r="AB14" s="54"/>
+      <c r="AC14" s="54"/>
+      <c r="AD14" s="54"/>
+      <c r="AE14" s="55"/>
     </row>
     <row r="15" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="65"/>
-      <c r="O15" s="65"/>
-      <c r="P15" s="65"/>
-      <c r="Q15" s="65"/>
-      <c r="R15" s="65"/>
-      <c r="S15" s="65"/>
-      <c r="T15" s="65"/>
-      <c r="U15" s="65"/>
-      <c r="V15" s="65"/>
-      <c r="W15" s="65"/>
-      <c r="X15" s="65"/>
-      <c r="Y15" s="65"/>
-      <c r="Z15" s="65"/>
-      <c r="AA15" s="65"/>
-      <c r="AB15" s="65"/>
-      <c r="AC15" s="65"/>
-      <c r="AD15" s="65"/>
-      <c r="AE15" s="66"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="54"/>
+      <c r="S15" s="54"/>
+      <c r="T15" s="54"/>
+      <c r="U15" s="54"/>
+      <c r="V15" s="54"/>
+      <c r="W15" s="54"/>
+      <c r="X15" s="54"/>
+      <c r="Y15" s="54"/>
+      <c r="Z15" s="54"/>
+      <c r="AA15" s="54"/>
+      <c r="AB15" s="54"/>
+      <c r="AC15" s="54"/>
+      <c r="AD15" s="54"/>
+      <c r="AE15" s="55"/>
     </row>
     <row r="16" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="64" t="s">
+      <c r="A16" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="65"/>
-      <c r="M16" s="65"/>
-      <c r="N16" s="65"/>
-      <c r="O16" s="65"/>
-      <c r="P16" s="65"/>
-      <c r="Q16" s="65"/>
-      <c r="R16" s="65"/>
-      <c r="S16" s="65"/>
-      <c r="T16" s="65"/>
-      <c r="U16" s="65"/>
-      <c r="V16" s="65"/>
-      <c r="W16" s="65"/>
-      <c r="X16" s="65"/>
-      <c r="Y16" s="65"/>
-      <c r="Z16" s="65"/>
-      <c r="AA16" s="65"/>
-      <c r="AB16" s="65"/>
-      <c r="AC16" s="65"/>
-      <c r="AD16" s="65"/>
-      <c r="AE16" s="66"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="54"/>
+      <c r="S16" s="54"/>
+      <c r="T16" s="54"/>
+      <c r="U16" s="54"/>
+      <c r="V16" s="54"/>
+      <c r="W16" s="54"/>
+      <c r="X16" s="54"/>
+      <c r="Y16" s="54"/>
+      <c r="Z16" s="54"/>
+      <c r="AA16" s="54"/>
+      <c r="AB16" s="54"/>
+      <c r="AC16" s="54"/>
+      <c r="AD16" s="54"/>
+      <c r="AE16" s="55"/>
     </row>
     <row r="17" spans="1:31" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="64" t="s">
+      <c r="A17" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="65"/>
-      <c r="M17" s="65"/>
-      <c r="N17" s="65"/>
-      <c r="O17" s="65"/>
-      <c r="P17" s="65"/>
-      <c r="Q17" s="65"/>
-      <c r="R17" s="65"/>
-      <c r="S17" s="65"/>
-      <c r="T17" s="65"/>
-      <c r="U17" s="65"/>
-      <c r="V17" s="65"/>
-      <c r="W17" s="65"/>
-      <c r="X17" s="65"/>
-      <c r="Y17" s="65"/>
-      <c r="Z17" s="65"/>
-      <c r="AA17" s="65"/>
-      <c r="AB17" s="65"/>
-      <c r="AC17" s="65"/>
-      <c r="AD17" s="65"/>
-      <c r="AE17" s="66"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="54"/>
+      <c r="S17" s="54"/>
+      <c r="T17" s="54"/>
+      <c r="U17" s="54"/>
+      <c r="V17" s="54"/>
+      <c r="W17" s="54"/>
+      <c r="X17" s="54"/>
+      <c r="Y17" s="54"/>
+      <c r="Z17" s="54"/>
+      <c r="AA17" s="54"/>
+      <c r="AB17" s="54"/>
+      <c r="AC17" s="54"/>
+      <c r="AD17" s="54"/>
+      <c r="AE17" s="55"/>
     </row>
     <row r="18" spans="1:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="B18" s="41"/>
       <c r="C18" s="41"/>
@@ -1953,7 +1963,7 @@
     </row>
     <row r="21" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
@@ -1987,21 +1997,21 @@
       <c r="AE21" s="8"/>
     </row>
     <row r="22" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="67" t="s">
+      <c r="A22" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="68"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="68"/>
-      <c r="L22" s="68"/>
-      <c r="M22" s="69"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="71"/>
       <c r="N22" s="21"/>
       <c r="O22" s="20"/>
       <c r="P22" s="20"/>
@@ -2022,21 +2032,21 @@
       <c r="AE22" s="8"/>
     </row>
     <row r="23" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="67" t="s">
+      <c r="A23" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="68"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="68"/>
-      <c r="L23" s="68"/>
-      <c r="M23" s="69"/>
+      <c r="B23" s="70"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="70"/>
+      <c r="M23" s="71"/>
       <c r="N23" s="21"/>
       <c r="O23" s="20"/>
       <c r="P23" s="20"/>
@@ -2057,21 +2067,21 @@
       <c r="AE23" s="8"/>
     </row>
     <row r="24" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="67" t="s">
+      <c r="A24" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="68"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="68"/>
-      <c r="M24" s="69"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="70"/>
+      <c r="M24" s="71"/>
       <c r="N24" s="21"/>
       <c r="O24" s="20"/>
       <c r="P24" s="20"/>
@@ -2092,21 +2102,21 @@
       <c r="AE24" s="8"/>
     </row>
     <row r="25" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="70" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="71"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="71"/>
-      <c r="L25" s="71"/>
-      <c r="M25" s="72"/>
+      <c r="A25" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="75"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="75"/>
+      <c r="J25" s="75"/>
+      <c r="K25" s="75"/>
+      <c r="L25" s="75"/>
+      <c r="M25" s="76"/>
       <c r="N25" s="21"/>
       <c r="O25" s="20"/>
       <c r="P25" s="20"/>
@@ -2127,21 +2137,21 @@
       <c r="AE25" s="8"/>
     </row>
     <row r="26" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="70" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="71"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="71"/>
-      <c r="L26" s="71"/>
-      <c r="M26" s="72"/>
+      <c r="A26" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="75"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="75"/>
+      <c r="L26" s="75"/>
+      <c r="M26" s="76"/>
       <c r="N26" s="21"/>
       <c r="O26" s="20"/>
       <c r="P26" s="20"/>
@@ -2162,21 +2172,21 @@
       <c r="AE26" s="8"/>
     </row>
     <row r="27" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="70" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="71"/>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="71"/>
-      <c r="J27" s="71"/>
-      <c r="K27" s="71"/>
-      <c r="L27" s="71"/>
-      <c r="M27" s="72"/>
+      <c r="A27" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="75"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="75"/>
+      <c r="M27" s="76"/>
       <c r="N27" s="21"/>
       <c r="O27" s="20"/>
       <c r="P27" s="20"/>
@@ -2197,21 +2207,21 @@
       <c r="AE27" s="8"/>
     </row>
     <row r="28" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="70" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="71"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="71"/>
-      <c r="J28" s="71"/>
-      <c r="K28" s="71"/>
-      <c r="L28" s="71"/>
-      <c r="M28" s="72"/>
+      <c r="A28" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="75"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="75"/>
+      <c r="J28" s="75"/>
+      <c r="K28" s="75"/>
+      <c r="L28" s="75"/>
+      <c r="M28" s="76"/>
       <c r="N28" s="21"/>
       <c r="O28" s="20"/>
       <c r="P28" s="20"/>
@@ -2232,21 +2242,21 @@
       <c r="AE28" s="8"/>
     </row>
     <row r="29" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="70" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="71"/>
-      <c r="C29" s="71"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="71"/>
-      <c r="K29" s="71"/>
-      <c r="L29" s="71"/>
-      <c r="M29" s="72"/>
+      <c r="A29" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="75"/>
+      <c r="C29" s="75"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="75"/>
+      <c r="J29" s="75"/>
+      <c r="K29" s="75"/>
+      <c r="L29" s="75"/>
+      <c r="M29" s="76"/>
       <c r="N29" s="21"/>
       <c r="O29" s="20"/>
       <c r="P29" s="20"/>
@@ -2301,7 +2311,7 @@
     </row>
     <row r="31" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="23"/>
@@ -2336,7 +2346,7 @@
     </row>
     <row r="32" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" s="43"/>
       <c r="C32" s="43"/>
@@ -2371,7 +2381,7 @@
     </row>
     <row r="33" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33" s="43"/>
       <c r="C33" s="43"/>
@@ -2406,7 +2416,7 @@
     </row>
     <row r="34" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B34" s="43"/>
       <c r="C34" s="43"/>
@@ -2441,7 +2451,7 @@
     </row>
     <row r="35" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B35" s="43"/>
       <c r="C35" s="43"/>
@@ -2578,21 +2588,21 @@
       <c r="AE38" s="8"/>
     </row>
     <row r="39" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="67" t="s">
+      <c r="A39" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="68"/>
-      <c r="C39" s="68"/>
-      <c r="D39" s="68"/>
-      <c r="E39" s="68"/>
-      <c r="F39" s="68"/>
-      <c r="G39" s="68"/>
-      <c r="H39" s="68"/>
-      <c r="I39" s="68"/>
-      <c r="J39" s="68"/>
-      <c r="K39" s="68"/>
-      <c r="L39" s="68"/>
-      <c r="M39" s="69"/>
+      <c r="B39" s="70"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="70"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="70"/>
+      <c r="H39" s="70"/>
+      <c r="I39" s="70"/>
+      <c r="J39" s="70"/>
+      <c r="K39" s="70"/>
+      <c r="L39" s="70"/>
+      <c r="M39" s="71"/>
       <c r="N39" s="21"/>
       <c r="O39" s="20"/>
       <c r="P39" s="20"/>
@@ -2613,21 +2623,21 @@
       <c r="AE39" s="8"/>
     </row>
     <row r="40" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="67" t="s">
+      <c r="A40" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="B40" s="68"/>
-      <c r="C40" s="68"/>
-      <c r="D40" s="68"/>
-      <c r="E40" s="68"/>
-      <c r="F40" s="68"/>
-      <c r="G40" s="68"/>
-      <c r="H40" s="68"/>
-      <c r="I40" s="68"/>
-      <c r="J40" s="68"/>
-      <c r="K40" s="68"/>
-      <c r="L40" s="68"/>
-      <c r="M40" s="69"/>
+      <c r="B40" s="70"/>
+      <c r="C40" s="70"/>
+      <c r="D40" s="70"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="70"/>
+      <c r="H40" s="70"/>
+      <c r="I40" s="70"/>
+      <c r="J40" s="70"/>
+      <c r="K40" s="70"/>
+      <c r="L40" s="70"/>
+      <c r="M40" s="71"/>
       <c r="N40" s="21"/>
       <c r="O40" s="20"/>
       <c r="P40" s="20"/>
@@ -2648,21 +2658,21 @@
       <c r="AE40" s="8"/>
     </row>
     <row r="41" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="67" t="s">
+      <c r="A41" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="68"/>
-      <c r="C41" s="68"/>
-      <c r="D41" s="68"/>
-      <c r="E41" s="68"/>
-      <c r="F41" s="68"/>
-      <c r="G41" s="68"/>
-      <c r="H41" s="68"/>
-      <c r="I41" s="68"/>
-      <c r="J41" s="68"/>
-      <c r="K41" s="68"/>
-      <c r="L41" s="68"/>
-      <c r="M41" s="69"/>
+      <c r="B41" s="70"/>
+      <c r="C41" s="70"/>
+      <c r="D41" s="70"/>
+      <c r="E41" s="70"/>
+      <c r="F41" s="70"/>
+      <c r="G41" s="70"/>
+      <c r="H41" s="70"/>
+      <c r="I41" s="70"/>
+      <c r="J41" s="70"/>
+      <c r="K41" s="70"/>
+      <c r="L41" s="70"/>
+      <c r="M41" s="71"/>
       <c r="N41" s="21"/>
       <c r="O41" s="20"/>
       <c r="P41" s="20"/>
@@ -2683,21 +2693,21 @@
       <c r="AE41" s="8"/>
     </row>
     <row r="42" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="67" t="s">
+      <c r="A42" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="68"/>
-      <c r="C42" s="68"/>
-      <c r="D42" s="68"/>
-      <c r="E42" s="68"/>
-      <c r="F42" s="68"/>
-      <c r="G42" s="68"/>
-      <c r="H42" s="68"/>
-      <c r="I42" s="68"/>
-      <c r="J42" s="68"/>
-      <c r="K42" s="68"/>
-      <c r="L42" s="68"/>
-      <c r="M42" s="69"/>
+      <c r="B42" s="70"/>
+      <c r="C42" s="70"/>
+      <c r="D42" s="70"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="70"/>
+      <c r="H42" s="70"/>
+      <c r="I42" s="70"/>
+      <c r="J42" s="70"/>
+      <c r="K42" s="70"/>
+      <c r="L42" s="70"/>
+      <c r="M42" s="71"/>
       <c r="N42" s="21"/>
       <c r="O42" s="20"/>
       <c r="P42" s="20"/>
@@ -2718,21 +2728,21 @@
       <c r="AE42" s="8"/>
     </row>
     <row r="43" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="70" t="s">
+      <c r="A43" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="71"/>
-      <c r="C43" s="71"/>
-      <c r="D43" s="71"/>
-      <c r="E43" s="71"/>
-      <c r="F43" s="71"/>
-      <c r="G43" s="71"/>
-      <c r="H43" s="71"/>
-      <c r="I43" s="71"/>
-      <c r="J43" s="71"/>
-      <c r="K43" s="71"/>
-      <c r="L43" s="71"/>
-      <c r="M43" s="72"/>
+      <c r="B43" s="75"/>
+      <c r="C43" s="75"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="75"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="75"/>
+      <c r="H43" s="75"/>
+      <c r="I43" s="75"/>
+      <c r="J43" s="75"/>
+      <c r="K43" s="75"/>
+      <c r="L43" s="75"/>
+      <c r="M43" s="76"/>
       <c r="N43" s="21"/>
       <c r="O43" s="20"/>
       <c r="P43" s="20"/>
@@ -2754,7 +2764,7 @@
     </row>
     <row r="44" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
@@ -2788,21 +2798,21 @@
       <c r="AE44" s="8"/>
     </row>
     <row r="45" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="70" t="s">
-        <v>48</v>
-      </c>
-      <c r="B45" s="71"/>
-      <c r="C45" s="71"/>
-      <c r="D45" s="71"/>
-      <c r="E45" s="71"/>
-      <c r="F45" s="71"/>
-      <c r="G45" s="71"/>
-      <c r="H45" s="71"/>
-      <c r="I45" s="71"/>
-      <c r="J45" s="71"/>
-      <c r="K45" s="71"/>
-      <c r="L45" s="71"/>
-      <c r="M45" s="72"/>
+      <c r="A45" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="75"/>
+      <c r="C45" s="75"/>
+      <c r="D45" s="75"/>
+      <c r="E45" s="75"/>
+      <c r="F45" s="75"/>
+      <c r="G45" s="75"/>
+      <c r="H45" s="75"/>
+      <c r="I45" s="75"/>
+      <c r="J45" s="75"/>
+      <c r="K45" s="75"/>
+      <c r="L45" s="75"/>
+      <c r="M45" s="76"/>
       <c r="N45" s="29"/>
       <c r="O45" s="7"/>
       <c r="P45" s="7"/>
@@ -2824,7 +2834,7 @@
     </row>
     <row r="46" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" s="51"/>
       <c r="C46" s="51"/>
@@ -2858,21 +2868,21 @@
       <c r="AE46" s="8"/>
     </row>
     <row r="47" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="70" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47" s="71"/>
-      <c r="C47" s="71"/>
-      <c r="D47" s="71"/>
-      <c r="E47" s="71"/>
-      <c r="F47" s="71"/>
-      <c r="G47" s="71"/>
-      <c r="H47" s="71"/>
-      <c r="I47" s="71"/>
-      <c r="J47" s="71"/>
-      <c r="K47" s="71"/>
-      <c r="L47" s="71"/>
-      <c r="M47" s="72"/>
+      <c r="A47" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="75"/>
+      <c r="C47" s="75"/>
+      <c r="D47" s="75"/>
+      <c r="E47" s="75"/>
+      <c r="F47" s="75"/>
+      <c r="G47" s="75"/>
+      <c r="H47" s="75"/>
+      <c r="I47" s="75"/>
+      <c r="J47" s="75"/>
+      <c r="K47" s="75"/>
+      <c r="L47" s="75"/>
+      <c r="M47" s="76"/>
       <c r="N47" s="29"/>
       <c r="O47" s="7"/>
       <c r="P47" s="7"/>
@@ -2893,21 +2903,21 @@
       <c r="AE47" s="8"/>
     </row>
     <row r="48" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="70" t="s">
-        <v>57</v>
-      </c>
-      <c r="B48" s="71"/>
-      <c r="C48" s="71"/>
-      <c r="D48" s="71"/>
-      <c r="E48" s="71"/>
-      <c r="F48" s="71"/>
-      <c r="G48" s="71"/>
-      <c r="H48" s="71"/>
-      <c r="I48" s="71"/>
-      <c r="J48" s="71"/>
-      <c r="K48" s="71"/>
-      <c r="L48" s="71"/>
-      <c r="M48" s="72"/>
+      <c r="A48" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" s="75"/>
+      <c r="C48" s="75"/>
+      <c r="D48" s="75"/>
+      <c r="E48" s="75"/>
+      <c r="F48" s="75"/>
+      <c r="G48" s="75"/>
+      <c r="H48" s="75"/>
+      <c r="I48" s="75"/>
+      <c r="J48" s="75"/>
+      <c r="K48" s="75"/>
+      <c r="L48" s="75"/>
+      <c r="M48" s="76"/>
       <c r="N48" s="29"/>
       <c r="O48" s="7"/>
       <c r="P48" s="7"/>
@@ -2961,21 +2971,21 @@
       <c r="AE49" s="8"/>
     </row>
     <row r="50" spans="1:34" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="73" t="s">
+      <c r="A50" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="B50" s="74"/>
-      <c r="C50" s="74"/>
-      <c r="D50" s="74"/>
-      <c r="E50" s="74"/>
-      <c r="F50" s="74"/>
-      <c r="G50" s="74"/>
-      <c r="H50" s="74"/>
-      <c r="I50" s="74"/>
-      <c r="J50" s="74"/>
-      <c r="K50" s="74"/>
-      <c r="L50" s="74"/>
-      <c r="M50" s="74"/>
+      <c r="B50" s="73"/>
+      <c r="C50" s="73"/>
+      <c r="D50" s="73"/>
+      <c r="E50" s="73"/>
+      <c r="F50" s="73"/>
+      <c r="G50" s="73"/>
+      <c r="H50" s="73"/>
+      <c r="I50" s="73"/>
+      <c r="J50" s="73"/>
+      <c r="K50" s="73"/>
+      <c r="L50" s="73"/>
+      <c r="M50" s="73"/>
       <c r="N50" s="30"/>
       <c r="O50" s="31"/>
       <c r="P50" s="31"/>
@@ -3064,21 +3074,21 @@
       <c r="AE52" s="8"/>
     </row>
     <row r="53" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="67" t="s">
+      <c r="A53" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B53" s="68"/>
-      <c r="C53" s="68"/>
-      <c r="D53" s="68"/>
-      <c r="E53" s="68"/>
-      <c r="F53" s="68"/>
-      <c r="G53" s="68"/>
-      <c r="H53" s="68"/>
-      <c r="I53" s="68"/>
-      <c r="J53" s="68"/>
-      <c r="K53" s="68"/>
-      <c r="L53" s="68"/>
-      <c r="M53" s="69"/>
+      <c r="B53" s="70"/>
+      <c r="C53" s="70"/>
+      <c r="D53" s="70"/>
+      <c r="E53" s="70"/>
+      <c r="F53" s="70"/>
+      <c r="G53" s="70"/>
+      <c r="H53" s="70"/>
+      <c r="I53" s="70"/>
+      <c r="J53" s="70"/>
+      <c r="K53" s="70"/>
+      <c r="L53" s="70"/>
+      <c r="M53" s="71"/>
       <c r="N53" s="21"/>
       <c r="O53" s="20"/>
       <c r="P53" s="20"/>
@@ -3099,21 +3109,21 @@
       <c r="AE53" s="8"/>
     </row>
     <row r="54" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="67" t="s">
+      <c r="A54" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B54" s="68"/>
-      <c r="C54" s="68"/>
-      <c r="D54" s="68"/>
-      <c r="E54" s="68"/>
-      <c r="F54" s="68"/>
-      <c r="G54" s="68"/>
-      <c r="H54" s="68"/>
-      <c r="I54" s="68"/>
-      <c r="J54" s="68"/>
-      <c r="K54" s="68"/>
-      <c r="L54" s="68"/>
-      <c r="M54" s="69"/>
+      <c r="B54" s="70"/>
+      <c r="C54" s="70"/>
+      <c r="D54" s="70"/>
+      <c r="E54" s="70"/>
+      <c r="F54" s="70"/>
+      <c r="G54" s="70"/>
+      <c r="H54" s="70"/>
+      <c r="I54" s="70"/>
+      <c r="J54" s="70"/>
+      <c r="K54" s="70"/>
+      <c r="L54" s="70"/>
+      <c r="M54" s="71"/>
       <c r="N54" s="25"/>
       <c r="O54" s="20"/>
       <c r="P54" s="20"/>
@@ -3167,160 +3177,160 @@
       <c r="AE55" s="8"/>
     </row>
     <row r="56" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="58" t="s">
+      <c r="A56" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="B56" s="59"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="59"/>
-      <c r="E56" s="59"/>
-      <c r="F56" s="59"/>
-      <c r="G56" s="59"/>
-      <c r="H56" s="59"/>
-      <c r="I56" s="59"/>
-      <c r="J56" s="59"/>
-      <c r="K56" s="59"/>
-      <c r="L56" s="59"/>
-      <c r="M56" s="59"/>
-      <c r="N56" s="59"/>
-      <c r="O56" s="59"/>
-      <c r="P56" s="59"/>
-      <c r="Q56" s="59"/>
-      <c r="R56" s="59"/>
-      <c r="S56" s="59"/>
-      <c r="T56" s="59"/>
-      <c r="U56" s="59"/>
-      <c r="V56" s="59"/>
-      <c r="W56" s="59"/>
-      <c r="X56" s="59"/>
-      <c r="Y56" s="59"/>
-      <c r="Z56" s="59"/>
-      <c r="AA56" s="59"/>
-      <c r="AB56" s="59"/>
-      <c r="AC56" s="75" t="s">
+      <c r="B56" s="57"/>
+      <c r="C56" s="57"/>
+      <c r="D56" s="57"/>
+      <c r="E56" s="57"/>
+      <c r="F56" s="57"/>
+      <c r="G56" s="57"/>
+      <c r="H56" s="57"/>
+      <c r="I56" s="57"/>
+      <c r="J56" s="57"/>
+      <c r="K56" s="57"/>
+      <c r="L56" s="57"/>
+      <c r="M56" s="57"/>
+      <c r="N56" s="57"/>
+      <c r="O56" s="57"/>
+      <c r="P56" s="57"/>
+      <c r="Q56" s="57"/>
+      <c r="R56" s="57"/>
+      <c r="S56" s="57"/>
+      <c r="T56" s="57"/>
+      <c r="U56" s="57"/>
+      <c r="V56" s="57"/>
+      <c r="W56" s="57"/>
+      <c r="X56" s="57"/>
+      <c r="Y56" s="57"/>
+      <c r="Z56" s="57"/>
+      <c r="AA56" s="57"/>
+      <c r="AB56" s="57"/>
+      <c r="AC56" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="AD56" s="76"/>
-      <c r="AE56" s="76"/>
-      <c r="AF56" s="75" t="s">
+      <c r="AD56" s="59"/>
+      <c r="AE56" s="59"/>
+      <c r="AF56" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="AG56" s="76"/>
-      <c r="AH56" s="80"/>
+      <c r="AG56" s="59"/>
+      <c r="AH56" s="63"/>
     </row>
     <row r="57" spans="1:34" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="81" t="s">
+      <c r="A57" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="B57" s="82"/>
-      <c r="C57" s="82"/>
-      <c r="D57" s="82"/>
-      <c r="E57" s="82"/>
-      <c r="F57" s="82"/>
-      <c r="G57" s="82"/>
-      <c r="H57" s="82"/>
-      <c r="I57" s="82"/>
-      <c r="J57" s="82"/>
-      <c r="K57" s="82"/>
-      <c r="L57" s="82"/>
-      <c r="M57" s="82"/>
-      <c r="N57" s="82"/>
-      <c r="O57" s="82"/>
-      <c r="P57" s="82"/>
-      <c r="Q57" s="82"/>
-      <c r="R57" s="82"/>
-      <c r="S57" s="82"/>
-      <c r="T57" s="82"/>
-      <c r="U57" s="82"/>
-      <c r="V57" s="82"/>
-      <c r="W57" s="82"/>
-      <c r="X57" s="82"/>
-      <c r="Y57" s="82"/>
-      <c r="Z57" s="82"/>
-      <c r="AA57" s="82"/>
-      <c r="AB57" s="82"/>
-      <c r="AC57" s="75"/>
-      <c r="AD57" s="76"/>
-      <c r="AE57" s="76"/>
-      <c r="AF57" s="75"/>
-      <c r="AG57" s="76"/>
-      <c r="AH57" s="80"/>
+      <c r="B57" s="65"/>
+      <c r="C57" s="65"/>
+      <c r="D57" s="65"/>
+      <c r="E57" s="65"/>
+      <c r="F57" s="65"/>
+      <c r="G57" s="65"/>
+      <c r="H57" s="65"/>
+      <c r="I57" s="65"/>
+      <c r="J57" s="65"/>
+      <c r="K57" s="65"/>
+      <c r="L57" s="65"/>
+      <c r="M57" s="65"/>
+      <c r="N57" s="65"/>
+      <c r="O57" s="65"/>
+      <c r="P57" s="65"/>
+      <c r="Q57" s="65"/>
+      <c r="R57" s="65"/>
+      <c r="S57" s="65"/>
+      <c r="T57" s="65"/>
+      <c r="U57" s="65"/>
+      <c r="V57" s="65"/>
+      <c r="W57" s="65"/>
+      <c r="X57" s="65"/>
+      <c r="Y57" s="65"/>
+      <c r="Z57" s="65"/>
+      <c r="AA57" s="65"/>
+      <c r="AB57" s="65"/>
+      <c r="AC57" s="58"/>
+      <c r="AD57" s="59"/>
+      <c r="AE57" s="59"/>
+      <c r="AF57" s="58"/>
+      <c r="AG57" s="59"/>
+      <c r="AH57" s="63"/>
     </row>
     <row r="58" spans="1:34" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="83" t="s">
-        <v>46</v>
-      </c>
-      <c r="B58" s="84"/>
-      <c r="C58" s="84"/>
-      <c r="D58" s="84"/>
-      <c r="E58" s="84"/>
-      <c r="F58" s="84"/>
-      <c r="G58" s="84"/>
-      <c r="H58" s="84"/>
-      <c r="I58" s="84"/>
-      <c r="J58" s="84"/>
-      <c r="K58" s="84"/>
-      <c r="L58" s="84"/>
-      <c r="M58" s="84"/>
-      <c r="N58" s="84"/>
-      <c r="O58" s="84"/>
-      <c r="P58" s="84"/>
-      <c r="Q58" s="84"/>
-      <c r="R58" s="84"/>
-      <c r="S58" s="84"/>
-      <c r="T58" s="84"/>
-      <c r="U58" s="84"/>
-      <c r="V58" s="84"/>
-      <c r="W58" s="84"/>
-      <c r="X58" s="84"/>
-      <c r="Y58" s="84"/>
-      <c r="Z58" s="84"/>
-      <c r="AA58" s="84"/>
-      <c r="AB58" s="84"/>
-      <c r="AC58" s="84"/>
-      <c r="AD58" s="84"/>
-      <c r="AE58" s="84"/>
-      <c r="AF58" s="84"/>
-      <c r="AG58" s="84"/>
-      <c r="AH58" s="85"/>
+      <c r="A58" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="B58" s="67"/>
+      <c r="C58" s="67"/>
+      <c r="D58" s="67"/>
+      <c r="E58" s="67"/>
+      <c r="F58" s="67"/>
+      <c r="G58" s="67"/>
+      <c r="H58" s="67"/>
+      <c r="I58" s="67"/>
+      <c r="J58" s="67"/>
+      <c r="K58" s="67"/>
+      <c r="L58" s="67"/>
+      <c r="M58" s="67"/>
+      <c r="N58" s="67"/>
+      <c r="O58" s="67"/>
+      <c r="P58" s="67"/>
+      <c r="Q58" s="67"/>
+      <c r="R58" s="67"/>
+      <c r="S58" s="67"/>
+      <c r="T58" s="67"/>
+      <c r="U58" s="67"/>
+      <c r="V58" s="67"/>
+      <c r="W58" s="67"/>
+      <c r="X58" s="67"/>
+      <c r="Y58" s="67"/>
+      <c r="Z58" s="67"/>
+      <c r="AA58" s="67"/>
+      <c r="AB58" s="67"/>
+      <c r="AC58" s="67"/>
+      <c r="AD58" s="67"/>
+      <c r="AE58" s="67"/>
+      <c r="AF58" s="67"/>
+      <c r="AG58" s="67"/>
+      <c r="AH58" s="68"/>
     </row>
     <row r="59" spans="1:34" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="77" t="s">
+      <c r="A59" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="B59" s="78"/>
-      <c r="C59" s="78"/>
-      <c r="D59" s="78"/>
-      <c r="E59" s="78"/>
-      <c r="F59" s="78"/>
-      <c r="G59" s="78"/>
-      <c r="H59" s="78"/>
-      <c r="I59" s="78"/>
-      <c r="J59" s="78"/>
-      <c r="K59" s="78"/>
-      <c r="L59" s="78"/>
-      <c r="M59" s="78"/>
-      <c r="N59" s="78"/>
-      <c r="O59" s="78"/>
-      <c r="P59" s="78"/>
-      <c r="Q59" s="78"/>
-      <c r="R59" s="78"/>
-      <c r="S59" s="78"/>
-      <c r="T59" s="78"/>
-      <c r="U59" s="78"/>
-      <c r="V59" s="78"/>
-      <c r="W59" s="78"/>
-      <c r="X59" s="78"/>
-      <c r="Y59" s="78"/>
-      <c r="Z59" s="78"/>
-      <c r="AA59" s="78"/>
-      <c r="AB59" s="78"/>
-      <c r="AC59" s="78"/>
-      <c r="AD59" s="78"/>
-      <c r="AE59" s="78"/>
-      <c r="AF59" s="78"/>
-      <c r="AG59" s="78"/>
-      <c r="AH59" s="79"/>
+      <c r="B59" s="61"/>
+      <c r="C59" s="61"/>
+      <c r="D59" s="61"/>
+      <c r="E59" s="61"/>
+      <c r="F59" s="61"/>
+      <c r="G59" s="61"/>
+      <c r="H59" s="61"/>
+      <c r="I59" s="61"/>
+      <c r="J59" s="61"/>
+      <c r="K59" s="61"/>
+      <c r="L59" s="61"/>
+      <c r="M59" s="61"/>
+      <c r="N59" s="61"/>
+      <c r="O59" s="61"/>
+      <c r="P59" s="61"/>
+      <c r="Q59" s="61"/>
+      <c r="R59" s="61"/>
+      <c r="S59" s="61"/>
+      <c r="T59" s="61"/>
+      <c r="U59" s="61"/>
+      <c r="V59" s="61"/>
+      <c r="W59" s="61"/>
+      <c r="X59" s="61"/>
+      <c r="Y59" s="61"/>
+      <c r="Z59" s="61"/>
+      <c r="AA59" s="61"/>
+      <c r="AB59" s="61"/>
+      <c r="AC59" s="61"/>
+      <c r="AD59" s="61"/>
+      <c r="AE59" s="61"/>
+      <c r="AF59" s="61"/>
+      <c r="AG59" s="61"/>
+      <c r="AH59" s="62"/>
     </row>
     <row r="60" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="36" t="s">
@@ -3429,144 +3439,144 @@
       <c r="AE62" s="33"/>
     </row>
     <row r="63" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="64" t="s">
+      <c r="A63" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B63" s="65"/>
-      <c r="C63" s="65"/>
-      <c r="D63" s="65"/>
-      <c r="E63" s="65"/>
-      <c r="F63" s="65"/>
-      <c r="G63" s="65"/>
-      <c r="H63" s="65"/>
-      <c r="I63" s="65"/>
-      <c r="J63" s="65"/>
-      <c r="K63" s="65"/>
-      <c r="L63" s="65"/>
-      <c r="M63" s="65"/>
-      <c r="N63" s="65"/>
-      <c r="O63" s="65"/>
-      <c r="P63" s="65"/>
-      <c r="Q63" s="65"/>
-      <c r="R63" s="65"/>
-      <c r="S63" s="65"/>
-      <c r="T63" s="65"/>
-      <c r="U63" s="65"/>
-      <c r="V63" s="65"/>
-      <c r="W63" s="65"/>
-      <c r="X63" s="65"/>
-      <c r="Y63" s="65"/>
-      <c r="Z63" s="65"/>
-      <c r="AA63" s="65"/>
-      <c r="AB63" s="65"/>
-      <c r="AC63" s="65"/>
-      <c r="AD63" s="65"/>
-      <c r="AE63" s="66"/>
+      <c r="B63" s="54"/>
+      <c r="C63" s="54"/>
+      <c r="D63" s="54"/>
+      <c r="E63" s="54"/>
+      <c r="F63" s="54"/>
+      <c r="G63" s="54"/>
+      <c r="H63" s="54"/>
+      <c r="I63" s="54"/>
+      <c r="J63" s="54"/>
+      <c r="K63" s="54"/>
+      <c r="L63" s="54"/>
+      <c r="M63" s="54"/>
+      <c r="N63" s="54"/>
+      <c r="O63" s="54"/>
+      <c r="P63" s="54"/>
+      <c r="Q63" s="54"/>
+      <c r="R63" s="54"/>
+      <c r="S63" s="54"/>
+      <c r="T63" s="54"/>
+      <c r="U63" s="54"/>
+      <c r="V63" s="54"/>
+      <c r="W63" s="54"/>
+      <c r="X63" s="54"/>
+      <c r="Y63" s="54"/>
+      <c r="Z63" s="54"/>
+      <c r="AA63" s="54"/>
+      <c r="AB63" s="54"/>
+      <c r="AC63" s="54"/>
+      <c r="AD63" s="54"/>
+      <c r="AE63" s="55"/>
     </row>
     <row r="64" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="64" t="s">
+      <c r="A64" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="B64" s="65"/>
-      <c r="C64" s="65"/>
-      <c r="D64" s="65"/>
-      <c r="E64" s="65"/>
-      <c r="F64" s="65"/>
-      <c r="G64" s="65"/>
-      <c r="H64" s="65"/>
-      <c r="I64" s="65"/>
-      <c r="J64" s="65"/>
-      <c r="K64" s="65"/>
-      <c r="L64" s="65"/>
-      <c r="M64" s="65"/>
-      <c r="N64" s="65"/>
-      <c r="O64" s="65"/>
-      <c r="P64" s="65"/>
-      <c r="Q64" s="65"/>
-      <c r="R64" s="65"/>
-      <c r="S64" s="65"/>
-      <c r="T64" s="65"/>
-      <c r="U64" s="65"/>
-      <c r="V64" s="65"/>
-      <c r="W64" s="65"/>
-      <c r="X64" s="65"/>
-      <c r="Y64" s="65"/>
-      <c r="Z64" s="65"/>
-      <c r="AA64" s="65"/>
-      <c r="AB64" s="65"/>
-      <c r="AC64" s="65"/>
-      <c r="AD64" s="65"/>
-      <c r="AE64" s="66"/>
+      <c r="B64" s="54"/>
+      <c r="C64" s="54"/>
+      <c r="D64" s="54"/>
+      <c r="E64" s="54"/>
+      <c r="F64" s="54"/>
+      <c r="G64" s="54"/>
+      <c r="H64" s="54"/>
+      <c r="I64" s="54"/>
+      <c r="J64" s="54"/>
+      <c r="K64" s="54"/>
+      <c r="L64" s="54"/>
+      <c r="M64" s="54"/>
+      <c r="N64" s="54"/>
+      <c r="O64" s="54"/>
+      <c r="P64" s="54"/>
+      <c r="Q64" s="54"/>
+      <c r="R64" s="54"/>
+      <c r="S64" s="54"/>
+      <c r="T64" s="54"/>
+      <c r="U64" s="54"/>
+      <c r="V64" s="54"/>
+      <c r="W64" s="54"/>
+      <c r="X64" s="54"/>
+      <c r="Y64" s="54"/>
+      <c r="Z64" s="54"/>
+      <c r="AA64" s="54"/>
+      <c r="AB64" s="54"/>
+      <c r="AC64" s="54"/>
+      <c r="AD64" s="54"/>
+      <c r="AE64" s="55"/>
     </row>
     <row r="65" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="64" t="s">
+      <c r="A65" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B65" s="65"/>
-      <c r="C65" s="65"/>
-      <c r="D65" s="65"/>
-      <c r="E65" s="65"/>
-      <c r="F65" s="65"/>
-      <c r="G65" s="65"/>
-      <c r="H65" s="65"/>
-      <c r="I65" s="65"/>
-      <c r="J65" s="65"/>
-      <c r="K65" s="65"/>
-      <c r="L65" s="65"/>
-      <c r="M65" s="65"/>
-      <c r="N65" s="65"/>
-      <c r="O65" s="65"/>
-      <c r="P65" s="65"/>
-      <c r="Q65" s="65"/>
-      <c r="R65" s="65"/>
-      <c r="S65" s="65"/>
-      <c r="T65" s="65"/>
-      <c r="U65" s="65"/>
-      <c r="V65" s="65"/>
-      <c r="W65" s="65"/>
-      <c r="X65" s="65"/>
-      <c r="Y65" s="65"/>
-      <c r="Z65" s="65"/>
-      <c r="AA65" s="65"/>
-      <c r="AB65" s="65"/>
-      <c r="AC65" s="65"/>
-      <c r="AD65" s="65"/>
-      <c r="AE65" s="66"/>
+      <c r="B65" s="54"/>
+      <c r="C65" s="54"/>
+      <c r="D65" s="54"/>
+      <c r="E65" s="54"/>
+      <c r="F65" s="54"/>
+      <c r="G65" s="54"/>
+      <c r="H65" s="54"/>
+      <c r="I65" s="54"/>
+      <c r="J65" s="54"/>
+      <c r="K65" s="54"/>
+      <c r="L65" s="54"/>
+      <c r="M65" s="54"/>
+      <c r="N65" s="54"/>
+      <c r="O65" s="54"/>
+      <c r="P65" s="54"/>
+      <c r="Q65" s="54"/>
+      <c r="R65" s="54"/>
+      <c r="S65" s="54"/>
+      <c r="T65" s="54"/>
+      <c r="U65" s="54"/>
+      <c r="V65" s="54"/>
+      <c r="W65" s="54"/>
+      <c r="X65" s="54"/>
+      <c r="Y65" s="54"/>
+      <c r="Z65" s="54"/>
+      <c r="AA65" s="54"/>
+      <c r="AB65" s="54"/>
+      <c r="AC65" s="54"/>
+      <c r="AD65" s="54"/>
+      <c r="AE65" s="55"/>
     </row>
     <row r="66" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="64" t="s">
+      <c r="A66" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="B66" s="65"/>
-      <c r="C66" s="65"/>
-      <c r="D66" s="65"/>
-      <c r="E66" s="65"/>
-      <c r="F66" s="65"/>
-      <c r="G66" s="65"/>
-      <c r="H66" s="65"/>
-      <c r="I66" s="65"/>
-      <c r="J66" s="65"/>
-      <c r="K66" s="65"/>
-      <c r="L66" s="65"/>
-      <c r="M66" s="65"/>
-      <c r="N66" s="65"/>
-      <c r="O66" s="65"/>
-      <c r="P66" s="65"/>
-      <c r="Q66" s="65"/>
-      <c r="R66" s="65"/>
-      <c r="S66" s="65"/>
-      <c r="T66" s="65"/>
-      <c r="U66" s="65"/>
-      <c r="V66" s="65"/>
-      <c r="W66" s="65"/>
-      <c r="X66" s="65"/>
-      <c r="Y66" s="65"/>
-      <c r="Z66" s="65"/>
-      <c r="AA66" s="65"/>
-      <c r="AB66" s="65"/>
-      <c r="AC66" s="65"/>
-      <c r="AD66" s="65"/>
-      <c r="AE66" s="66"/>
+      <c r="B66" s="54"/>
+      <c r="C66" s="54"/>
+      <c r="D66" s="54"/>
+      <c r="E66" s="54"/>
+      <c r="F66" s="54"/>
+      <c r="G66" s="54"/>
+      <c r="H66" s="54"/>
+      <c r="I66" s="54"/>
+      <c r="J66" s="54"/>
+      <c r="K66" s="54"/>
+      <c r="L66" s="54"/>
+      <c r="M66" s="54"/>
+      <c r="N66" s="54"/>
+      <c r="O66" s="54"/>
+      <c r="P66" s="54"/>
+      <c r="Q66" s="54"/>
+      <c r="R66" s="54"/>
+      <c r="S66" s="54"/>
+      <c r="T66" s="54"/>
+      <c r="U66" s="54"/>
+      <c r="V66" s="54"/>
+      <c r="W66" s="54"/>
+      <c r="X66" s="54"/>
+      <c r="Y66" s="54"/>
+      <c r="Z66" s="54"/>
+      <c r="AA66" s="54"/>
+      <c r="AB66" s="54"/>
+      <c r="AC66" s="54"/>
+      <c r="AD66" s="54"/>
+      <c r="AE66" s="55"/>
     </row>
     <row r="67" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
@@ -3668,37 +3678,37 @@
       <c r="AE69" s="8"/>
     </row>
     <row r="70" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="54"/>
-      <c r="B70" s="54"/>
-      <c r="C70" s="54"/>
-      <c r="D70" s="54"/>
-      <c r="E70" s="54"/>
-      <c r="F70" s="54"/>
-      <c r="G70" s="54"/>
-      <c r="H70" s="54"/>
-      <c r="I70" s="54"/>
-      <c r="J70" s="54"/>
-      <c r="K70" s="54"/>
-      <c r="L70" s="54"/>
-      <c r="M70" s="54"/>
-      <c r="N70" s="54"/>
-      <c r="O70" s="54"/>
-      <c r="P70" s="54"/>
-      <c r="Q70" s="54"/>
-      <c r="R70" s="54"/>
-      <c r="S70" s="54"/>
-      <c r="T70" s="54"/>
-      <c r="U70" s="54"/>
-      <c r="V70" s="54"/>
-      <c r="W70" s="54"/>
-      <c r="X70" s="54"/>
-      <c r="Y70" s="54"/>
-      <c r="Z70" s="54"/>
-      <c r="AA70" s="54"/>
-      <c r="AB70" s="54"/>
-      <c r="AC70" s="54"/>
-      <c r="AD70" s="54"/>
-      <c r="AE70" s="54"/>
+      <c r="A70" s="78"/>
+      <c r="B70" s="78"/>
+      <c r="C70" s="78"/>
+      <c r="D70" s="78"/>
+      <c r="E70" s="78"/>
+      <c r="F70" s="78"/>
+      <c r="G70" s="78"/>
+      <c r="H70" s="78"/>
+      <c r="I70" s="78"/>
+      <c r="J70" s="78"/>
+      <c r="K70" s="78"/>
+      <c r="L70" s="78"/>
+      <c r="M70" s="78"/>
+      <c r="N70" s="78"/>
+      <c r="O70" s="78"/>
+      <c r="P70" s="78"/>
+      <c r="Q70" s="78"/>
+      <c r="R70" s="78"/>
+      <c r="S70" s="78"/>
+      <c r="T70" s="78"/>
+      <c r="U70" s="78"/>
+      <c r="V70" s="78"/>
+      <c r="W70" s="78"/>
+      <c r="X70" s="78"/>
+      <c r="Y70" s="78"/>
+      <c r="Z70" s="78"/>
+      <c r="AA70" s="78"/>
+      <c r="AB70" s="78"/>
+      <c r="AC70" s="78"/>
+      <c r="AD70" s="78"/>
+      <c r="AE70" s="78"/>
     </row>
     <row r="71" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
@@ -3767,42 +3777,42 @@
       <c r="AE72" s="3"/>
     </row>
     <row r="73" spans="1:34" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="B73" s="53"/>
-      <c r="C73" s="53"/>
-      <c r="D73" s="53"/>
-      <c r="E73" s="53"/>
-      <c r="F73" s="53"/>
-      <c r="G73" s="53"/>
-      <c r="H73" s="53"/>
-      <c r="I73" s="53"/>
-      <c r="J73" s="53"/>
-      <c r="K73" s="53"/>
-      <c r="L73" s="53"/>
-      <c r="M73" s="53"/>
-      <c r="N73" s="53"/>
-      <c r="O73" s="53"/>
-      <c r="P73" s="53"/>
-      <c r="Q73" s="53"/>
-      <c r="R73" s="53"/>
-      <c r="S73" s="53"/>
-      <c r="T73" s="53"/>
-      <c r="U73" s="53"/>
-      <c r="V73" s="53"/>
-      <c r="W73" s="53"/>
-      <c r="X73" s="53"/>
-      <c r="Y73" s="53"/>
-      <c r="Z73" s="53"/>
-      <c r="AA73" s="53"/>
-      <c r="AB73" s="53"/>
-      <c r="AC73" s="53"/>
-      <c r="AD73" s="53"/>
-      <c r="AE73" s="53"/>
-      <c r="AF73" s="53"/>
-      <c r="AG73" s="53"/>
-      <c r="AH73" s="53"/>
+      <c r="A73" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="B73" s="77"/>
+      <c r="C73" s="77"/>
+      <c r="D73" s="77"/>
+      <c r="E73" s="77"/>
+      <c r="F73" s="77"/>
+      <c r="G73" s="77"/>
+      <c r="H73" s="77"/>
+      <c r="I73" s="77"/>
+      <c r="J73" s="77"/>
+      <c r="K73" s="77"/>
+      <c r="L73" s="77"/>
+      <c r="M73" s="77"/>
+      <c r="N73" s="77"/>
+      <c r="O73" s="77"/>
+      <c r="P73" s="77"/>
+      <c r="Q73" s="77"/>
+      <c r="R73" s="77"/>
+      <c r="S73" s="77"/>
+      <c r="T73" s="77"/>
+      <c r="U73" s="77"/>
+      <c r="V73" s="77"/>
+      <c r="W73" s="77"/>
+      <c r="X73" s="77"/>
+      <c r="Y73" s="77"/>
+      <c r="Z73" s="77"/>
+      <c r="AA73" s="77"/>
+      <c r="AB73" s="77"/>
+      <c r="AC73" s="77"/>
+      <c r="AD73" s="77"/>
+      <c r="AE73" s="77"/>
+      <c r="AF73" s="77"/>
+      <c r="AG73" s="77"/>
+      <c r="AH73" s="77"/>
     </row>
     <row r="74" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
@@ -3887,36 +3897,6 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A65:AE65"/>
-    <mergeCell ref="A66:AE66"/>
-    <mergeCell ref="A56:AB56"/>
-    <mergeCell ref="AC56:AE56"/>
-    <mergeCell ref="A59:AH59"/>
-    <mergeCell ref="AF56:AH56"/>
-    <mergeCell ref="A57:AB57"/>
-    <mergeCell ref="AC57:AE57"/>
-    <mergeCell ref="AF57:AH57"/>
-    <mergeCell ref="A58:AH58"/>
-    <mergeCell ref="A53:M53"/>
-    <mergeCell ref="A50:M50"/>
-    <mergeCell ref="A54:M54"/>
-    <mergeCell ref="A63:AE63"/>
-    <mergeCell ref="A64:AE64"/>
-    <mergeCell ref="A42:M42"/>
-    <mergeCell ref="A43:M43"/>
-    <mergeCell ref="A45:M45"/>
-    <mergeCell ref="A47:M47"/>
-    <mergeCell ref="A48:M48"/>
-    <mergeCell ref="A23:M23"/>
-    <mergeCell ref="A24:M24"/>
-    <mergeCell ref="A39:M39"/>
-    <mergeCell ref="A40:M40"/>
-    <mergeCell ref="A41:M41"/>
-    <mergeCell ref="A25:M25"/>
-    <mergeCell ref="A26:M26"/>
-    <mergeCell ref="A27:M27"/>
-    <mergeCell ref="A28:M28"/>
-    <mergeCell ref="A29:M29"/>
     <mergeCell ref="A73:AH73"/>
     <mergeCell ref="N70:V70"/>
     <mergeCell ref="W70:AE70"/>
@@ -3933,13 +3913,43 @@
     <mergeCell ref="A16:AE16"/>
     <mergeCell ref="A17:AE17"/>
     <mergeCell ref="A22:M22"/>
+    <mergeCell ref="A23:M23"/>
+    <mergeCell ref="A24:M24"/>
+    <mergeCell ref="A39:M39"/>
+    <mergeCell ref="A40:M40"/>
+    <mergeCell ref="A41:M41"/>
+    <mergeCell ref="A25:M25"/>
+    <mergeCell ref="A26:M26"/>
+    <mergeCell ref="A27:M27"/>
+    <mergeCell ref="A28:M28"/>
+    <mergeCell ref="A29:M29"/>
+    <mergeCell ref="A42:M42"/>
+    <mergeCell ref="A43:M43"/>
+    <mergeCell ref="A45:M45"/>
+    <mergeCell ref="A47:M47"/>
+    <mergeCell ref="A48:M48"/>
+    <mergeCell ref="A53:M53"/>
+    <mergeCell ref="A50:M50"/>
+    <mergeCell ref="A54:M54"/>
+    <mergeCell ref="A63:AE63"/>
+    <mergeCell ref="A64:AE64"/>
+    <mergeCell ref="A65:AE65"/>
+    <mergeCell ref="A66:AE66"/>
+    <mergeCell ref="A56:AB56"/>
+    <mergeCell ref="AC56:AE56"/>
+    <mergeCell ref="A59:AH59"/>
+    <mergeCell ref="AF56:AH56"/>
+    <mergeCell ref="A57:AB57"/>
+    <mergeCell ref="AC57:AE57"/>
+    <mergeCell ref="AF57:AH57"/>
+    <mergeCell ref="A58:AH58"/>
   </mergeCells>
   <pageMargins left="0.98425196850393704" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="52" orientation="portrait" r:id="rId1"/>
   <headerFooter scaleWithDoc="0">
     <oddHeader>&amp;R&amp;"Times New Roman,Negrita Cursiva"&amp;7AUTORIDAD DE SUPERVISIÓN DEL SISTEMA FINANCIERO</oddHeader>
     <oddFooter>&amp;L&amp;"Arial,Negrita"&amp;5&amp;K0033CCControl de versiones&amp;"Arial,Normal"&amp;K01+000
-Circular ASFI/740/2022 (última)&amp;R&amp;"Times New Roman,Normal"&amp;8Libro 1°
+Circular ASFI/828/2024 (última)&amp;R&amp;"Times New Roman,Normal"&amp;8Libro 1°
 Título III
 Capítulo VIII
 Anexo 3.2
